--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\2.IngameScene\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35EF6D9-07B9-478F-84DF-6FA43DE9A927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02425698-73F4-4FFD-9E28-B99FBBF9E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="226">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오! 당신이 걸치고 있는 그거! 글라이딩 망토가 아닌가!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자세히 보니 품질도 아주 좋아보이는군!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">썬샤인 아일랜드와 햇빛 마을에 어서 오시게! 나는 이 마을의 촌장이라네. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +251,6 @@
   </si>
   <si>
     <t>오, 세계지도를 그리는 꿈을 이루기 위해 왔다고? 그래그래, 작은섬 부터 시작하는 것도 나쁘지 않지!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"스페이스 바"를 꾹 누르면 글라이딩을 할 수 있다는 것을 잊지 말게나!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,10 +538,6 @@
   </si>
   <si>
     <t>퀘스트 클리어 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,10 +786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 섬의 숲의 기운이 필요해! 날 대신해서 좀 구해줘 킼키키!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너! 그래 거기 너! 날 좀 도와줘야 겠어!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,6 +960,30 @@
   <si>
     <t>맵을 돌아다니며 푸른 반짝수정 3개, 보라 반짝수정 3개, 초록 반짝수정 3개를 구해 피콕에게 건내자.
 (광부 피콕이 유용한 선물을 준다고 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길을 쭉 따라가보면 마을이 보일걸세!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오! 당신이 걸치고 있는 그거! 글라이딩 망토가 아닌가요??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히 보니까 품질도 아주 좋아보여요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"스페이스 바"를 꾹 누르면 글라이딩을 할 수 있다는 것을 잊지 말아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음? 본적 없는 얼굴이군. 햇빛 마을에 어서 오게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 섬의 숲의 기운이 필요해! 날 대신해서 좀 구해줘 키키키!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,6 +1262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1267,6 +1277,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,36 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1799,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,412 +1829,412 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="M1" s="49" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="M1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11000</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="M2" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+        <v>31</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>11000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>11090</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>11100</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>11090</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>11100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11100</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11200</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11200</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
-        <v>11200</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="C13" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
+        <v>11200</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
         <v>11300</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="B15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="41">
         <v>11301</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>11301</v>
-      </c>
       <c r="B16" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>11302</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>11302</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11390</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="A19" s="5">
+        <v>11303</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>11390</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="A20" s="5">
+        <v>11303</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>11390</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -2236,13 +2246,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
-        <v>11391</v>
+        <v>11390</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2254,13 +2264,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
-        <v>11391</v>
+        <v>11390</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -2275,10 +2285,10 @@
         <v>11391</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2293,10 +2303,10 @@
         <v>11391</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -2311,10 +2321,10 @@
         <v>11391</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2329,10 +2339,10 @@
         <v>11391</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2342,15 +2352,15 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -2365,10 +2375,10 @@
         <v>11391</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2378,15 +2388,15 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2398,13 +2408,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
-        <v>11392</v>
+        <v>11391</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2416,13 +2426,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
-        <v>11392</v>
+        <v>11391</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2434,13 +2444,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
-        <v>11393</v>
+        <v>11392</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -2452,13 +2462,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
-        <v>11393</v>
+        <v>11392</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2473,10 +2483,10 @@
         <v>11393</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2491,10 +2501,10 @@
         <v>11393</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2509,10 +2519,10 @@
         <v>11393</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -2527,10 +2537,10 @@
         <v>11393</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2542,13 +2552,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
-        <v>11394</v>
+        <v>11393</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2560,13 +2570,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
-        <v>11394</v>
+        <v>11393</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
@@ -2581,10 +2591,10 @@
         <v>11394</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2595,392 +2605,392 @@
       <c r="J41" s="40"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
-        <v>11400</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
+      <c r="A42" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="41">
-        <v>11400</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="45"/>
+      <c r="A43" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
+        <v>34</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
+        <v>33</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
+        <v>11500</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="41">
+        <v>11500</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="41">
         <v>11501</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="45"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="45"/>
+      <c r="B48" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>11600</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="45"/>
+        <v>42</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>11600</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="41">
+      <c r="A51" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="47"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="47"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="41">
         <v>11700</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="B53" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="47"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="41">
         <v>11700</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="B54" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="47"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>11701</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="45"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
-        <v>11790</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="58"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
-        <v>11790</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="30"/>
+      <c r="B55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>11790</v>
       </c>
       <c r="B56" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="57"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>11790</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="41">
-        <v>11800</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
-        <v>11800</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
+      <c r="A58" s="18">
+        <v>11790</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
+        <v>11800</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="41">
+        <v>11800</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="47"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="41">
         <v>11801</v>
       </c>
-      <c r="B59" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="45"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="B61" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="47"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>11801</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
-        <v>11890</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
-        <v>11890</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40"/>
+      <c r="B62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="47"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>11890</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -2995,46 +3005,46 @@
         <v>11890</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="30"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>11890</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="30"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -3044,252 +3054,249 @@
       <c r="I66" s="29"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>12000</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
+      <c r="B69" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="47"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="16">
         <v>12000</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="45"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
+      <c r="B70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="47"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
         <v>12000</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="43" t="s">
+      <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="45"/>
-      <c r="K69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="C71" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="47"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="41">
         <v>12100</v>
       </c>
-      <c r="B70" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="26">
+      <c r="B72" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="26">
         <v>12101</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="58"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="58"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>12190</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="58"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C74" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="57"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>12190</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="58"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="57"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>12190</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="58"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="57"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="33"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="57"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="57"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>12191</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="40"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="33"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>12191</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -3304,10 +3311,10 @@
         <v>12191</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -3322,10 +3329,10 @@
         <v>12191</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -3340,10 +3347,10 @@
         <v>12191</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -3358,10 +3365,10 @@
         <v>12191</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3376,10 +3383,10 @@
         <v>12191</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3394,10 +3401,10 @@
         <v>12191</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3408,194 +3415,194 @@
       <c r="J86" s="40"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="41">
-        <v>13000</v>
-      </c>
-      <c r="B87" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="45"/>
+      <c r="A87" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
-        <v>13000</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="45"/>
+      <c r="A88" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>13000</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="41">
-        <v>13100</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="45"/>
+      <c r="A90" s="16">
+        <v>13000</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="47"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
+        <v>13000</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="47"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="44">
+        <v>13100</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="47"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="41">
         <v>13101</v>
       </c>
-      <c r="B91" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="45"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="41">
+      <c r="B93" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="47"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
         <v>13102</v>
       </c>
-      <c r="B92" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="45"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="B94" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="47"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
         <v>13103</v>
       </c>
-      <c r="B93" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="45"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="40"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="40"/>
+      <c r="B95" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="40"/>
+      <c r="A96" s="16">
+        <v>13104</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="47"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>13190</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3610,10 +3617,10 @@
         <v>13190</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3628,10 +3635,10 @@
         <v>13190</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3646,10 +3653,10 @@
         <v>13190</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3664,10 +3671,10 @@
         <v>13190</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3679,13 +3686,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3697,13 +3704,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3715,13 +3722,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3736,10 +3743,10 @@
         <v>13191</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3751,13 +3758,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3769,13 +3776,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3787,13 +3794,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3805,13 +3812,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3823,13 +3830,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3841,13 +3848,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3862,10 +3869,10 @@
         <v>13193</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3877,13 +3884,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3895,13 +3902,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3913,13 +3920,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3934,10 +3941,10 @@
         <v>13194</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3952,10 +3959,10 @@
         <v>13194</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3970,10 +3977,10 @@
         <v>13194</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3985,13 +3992,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4003,13 +4010,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4021,13 +4028,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4042,10 +4049,10 @@
         <v>13195</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4057,13 +4064,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4075,13 +4082,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4093,13 +4100,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -4110,32 +4117,32 @@
       <c r="J125" s="40"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
-        <v>14090</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="40"/>
+      <c r="A126" s="43">
+        <v>14000</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="47"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>14090</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -4150,10 +4157,10 @@
         <v>14090</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4165,13 +4172,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
-        <v>14091</v>
+        <v>14090</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -4183,13 +4190,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
-        <v>14091</v>
+        <v>14090</v>
       </c>
       <c r="B130" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="38" t="s">
         <v>82</v>
-      </c>
-      <c r="C130" s="38" t="s">
-        <v>213</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -4200,189 +4207,265 @@
       <c r="J130" s="40"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="45"/>
+      <c r="A131" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="40"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="45"/>
+      <c r="A132" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="40"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="45"/>
+      <c r="A133" s="18">
+        <v>14091</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="45"/>
+      <c r="A134" s="18">
+        <v>14091</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="40"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
+      <c r="A135" s="5"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="47"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="46"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="46"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="46"/>
+      <c r="J136" s="47"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="46"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="47"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+      <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="47"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
+      <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
-      <c r="J139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="46"/>
+      <c r="J139" s="47"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
+      <c r="A140" s="6"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="43"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44"/>
-      <c r="J140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="47"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="47"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="46"/>
+      <c r="J142" s="47"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
+      <c r="I143" s="46"/>
+      <c r="J143" s="47"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
+      <c r="I144" s="46"/>
+      <c r="J144" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="C131:J131"/>
+  <mergeCells count="66">
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C136:J136"/>
     <mergeCell ref="C137:J137"/>
     <mergeCell ref="C138:J138"/>
     <mergeCell ref="C139:J139"/>
     <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C132:J132"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C92:J92"/>
     <mergeCell ref="C74:J74"/>
     <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C93:J93"/>
     <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C77:J77"/>
     <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
     <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C62:J62"/>
     <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C45:J45"/>
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="M2:T5"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C18:J18"/>
     <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C55:J55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4410,23 +4493,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="M1" s="61" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -4435,131 +4518,131 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="M2" s="60" t="s">
+      <c r="C2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="M2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+        <v>62</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -4568,208 +4651,208 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="C9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+        <v>64</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4807,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4828,34 +4911,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4872,20 +4955,20 @@
         <v>0</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4902,20 +4985,20 @@
         <v>2</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4932,20 +5015,20 @@
         <v>1</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4962,22 +5045,22 @@
         <v>1</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4994,16 +5077,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -5022,13 +5105,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -5046,13 +5129,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5070,16 +5153,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5096,16 +5179,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02425698-73F4-4FFD-9E28-B99FBBF9E9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F6728-B4D5-4E8A-9F00-EEBA14BEB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="225">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,14 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잠을 자면... 소량이네만 체력을 회복할 수 있고….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤에 나타나는 나이트몬스터와 조우하지 않고 아침을 맞을 수 있다네…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나에게는 필요 없는 장비이니… 가져가시네가…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -984,6 +976,10 @@
   </si>
   <si>
     <t>이 섬의 숲의 기운이 필요해! 날 대신해서 좀 구해줘 키키키!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠을 자면… 밤에 나타나는 나이트몬스터와 조우하지 않고 아침을 맞을 수 있다네…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,6 +1274,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,37 +1312,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,10 +1324,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1829,26 +1825,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="M1" s="51" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="M1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1867,16 +1863,16 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
       <c r="J2" s="47"/>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
@@ -1895,14 +1891,14 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="47"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
@@ -1911,24 +1907,24 @@
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -1937,24 +1933,24 @@
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1963,16 +1959,16 @@
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -1981,16 +1977,16 @@
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -1999,16 +1995,16 @@
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2017,16 +2013,16 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="C9" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -2036,7 +2032,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -2054,7 +2050,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -2072,7 +2068,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -2108,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -2126,7 +2122,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -2144,7 +2140,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -2162,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -2180,7 +2176,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -2288,7 +2284,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2648,7 +2644,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
@@ -2666,7 +2662,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
@@ -2683,16 +2679,16 @@
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="60"/>
+      <c r="C46" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="53"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
@@ -2720,7 +2716,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -2810,7 +2806,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
@@ -2828,7 +2824,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
@@ -2846,7 +2842,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
@@ -2863,16 +2859,16 @@
       <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="57"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="50"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
@@ -2936,7 +2932,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
@@ -3152,7 +3148,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -3170,7 +3166,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3187,16 +3183,16 @@
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="57"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
@@ -3205,16 +3201,16 @@
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="57"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
@@ -3223,16 +3219,16 @@
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="57"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
@@ -3241,16 +3237,16 @@
       <c r="B77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="C77" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="50"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
@@ -3259,16 +3255,16 @@
       <c r="B78" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="57"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
@@ -3368,7 +3364,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3386,7 +3382,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3404,7 +3400,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3422,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3433,32 +3429,32 @@
       <c r="J87" s="40"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
-        <v>12191</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="40"/>
+      <c r="A88" s="41">
+        <v>13000</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="47"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="41">
+      <c r="A89" s="16">
         <v>13000</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D89" s="46"/>
       <c r="E89" s="46"/>
@@ -3469,14 +3465,14 @@
       <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
+      <c r="A90" s="41">
         <v>13000</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>74</v>
+      <c r="B90" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D90" s="46"/>
       <c r="E90" s="46"/>
@@ -3487,14 +3483,14 @@
       <c r="J90" s="47"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="41">
-        <v>13000</v>
-      </c>
-      <c r="B91" s="41" t="s">
-        <v>75</v>
+      <c r="A91" s="44">
+        <v>13100</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="D91" s="46"/>
       <c r="E91" s="46"/>
@@ -3505,10 +3501,10 @@
       <c r="J91" s="47"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="44">
-        <v>13100</v>
-      </c>
-      <c r="B92" s="44" t="s">
+      <c r="A92" s="41">
+        <v>13101</v>
+      </c>
+      <c r="B92" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="45" t="s">
@@ -3524,13 +3520,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
-        <v>13101</v>
+        <v>13102</v>
       </c>
       <c r="B93" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
@@ -3542,7 +3538,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
-        <v>13102</v>
+        <v>13103</v>
       </c>
       <c r="B94" s="41" t="s">
         <v>132</v>
@@ -3559,14 +3555,14 @@
       <c r="J94" s="47"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="41">
-        <v>13103</v>
+      <c r="A95" s="16">
+        <v>13104</v>
       </c>
       <c r="B95" s="41" t="s">
         <v>132</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D95" s="46"/>
       <c r="E95" s="46"/>
@@ -3577,22 +3573,22 @@
       <c r="J95" s="47"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
-        <v>13104</v>
-      </c>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="18">
+        <v>13190</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="47"/>
+      <c r="C96" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="40"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
@@ -3602,7 +3598,7 @@
         <v>132</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3620,7 +3616,7 @@
         <v>132</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3638,7 +3634,7 @@
         <v>132</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3656,7 +3652,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3674,7 +3670,7 @@
         <v>132</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3692,7 +3688,7 @@
         <v>132</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3710,7 +3706,7 @@
         <v>132</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3722,13 +3718,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
-        <v>13190</v>
+        <v>13191</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3746,7 +3742,7 @@
         <v>132</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3764,7 +3760,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3782,7 +3778,7 @@
         <v>132</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3794,13 +3790,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
-        <v>13191</v>
+        <v>13192</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3818,7 +3814,7 @@
         <v>132</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3836,7 +3832,7 @@
         <v>132</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3848,13 +3844,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
-        <v>13192</v>
+        <v>13193</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3872,7 +3868,7 @@
         <v>132</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3890,7 +3886,7 @@
         <v>132</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3908,7 +3904,7 @@
         <v>132</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3920,13 +3916,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
-        <v>13193</v>
+        <v>13194</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3944,7 +3940,7 @@
         <v>132</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3980,7 +3976,7 @@
         <v>132</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3998,7 +3994,7 @@
         <v>132</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4016,7 +4012,7 @@
         <v>132</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4028,13 +4024,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
-        <v>13194</v>
+        <v>13195</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4052,7 +4048,7 @@
         <v>132</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4070,7 +4066,7 @@
         <v>132</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4088,7 +4084,7 @@
         <v>132</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4099,40 +4095,40 @@
       <c r="J124" s="40"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
-        <v>13195</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="40"/>
+      <c r="A125" s="43">
+        <v>14000</v>
+      </c>
+      <c r="B125" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="47"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="43">
-        <v>14000</v>
-      </c>
-      <c r="B126" s="43" t="s">
+      <c r="A126" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B126" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C126" s="45" t="s">
+      <c r="C126" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="46"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="47"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="40"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
@@ -4142,7 +4138,7 @@
         <v>79</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -4160,7 +4156,7 @@
         <v>79</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4178,7 +4174,7 @@
         <v>79</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -4196,7 +4192,7 @@
         <v>79</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -4214,7 +4210,7 @@
         <v>79</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -4226,13 +4222,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
-        <v>14090</v>
+        <v>14091</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -4250,7 +4246,7 @@
         <v>79</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -4261,25 +4257,19 @@
       <c r="J133" s="40"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="18">
-        <v>14091</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
-      <c r="J134" s="40"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
+      <c r="J134" s="47"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="45"/>
       <c r="D135" s="46"/>
@@ -4339,7 +4329,7 @@
       <c r="J139" s="47"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
+      <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="45"/>
       <c r="D140" s="46"/>
@@ -4386,75 +4376,11 @@
       <c r="I143" s="46"/>
       <c r="J143" s="47"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
-      <c r="I144" s="46"/>
-      <c r="J144" s="47"/>
-    </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:T5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="C125:J125"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C20:J20"/>
@@ -4466,6 +4392,58 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C139:J139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4493,23 +4471,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="M1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="M1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -4528,13 +4506,13 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
       <c r="J2" s="47"/>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4633,7 +4611,7 @@
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="46"/>
@@ -4651,7 +4629,7 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="46"/>
@@ -4809,53 +4787,67 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4865,20 +4857,6 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5048,13 +5026,13 @@
         <v>130</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
@@ -5108,10 +5086,10 @@
         <v>132</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -5132,10 +5110,10 @@
         <v>132</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5156,13 +5134,13 @@
         <v>132</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5182,13 +5160,13 @@
         <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F6728-B4D5-4E8A-9F00-EEBA14BEB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB27322-F782-4B45-BCF7-2A96C7D60514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -447,11 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>밤이 되면 나무에 살고 있는 반딧불이들이 빛나는데 이 광경은 섬에서 
-손 꼽히는 아름다운 광경이라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무의 나이가 썬샤인아일랜드와 같다는 말이 있을 정도로 오래된 나무
 이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,6 +975,10 @@
   </si>
   <si>
     <t>잠을 자면… 밤에 나타나는 나이트몬스터와 조우하지 않고 아침을 맞을 수 있다네…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 근처에는 반딧불이들이 서식하는데, 초록빛으로 빛나는 반딧불이들의 향연은 섬에서 손 꼽히는 아름다운 광경이라고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,6 +1263,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1273,6 +1281,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1282,49 +1311,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
@@ -1825,26 +1824,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="M1" s="54" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="M1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1853,26 +1852,26 @@
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="M2" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="M2" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
@@ -1881,24 +1880,24 @@
       <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
@@ -1907,24 +1906,24 @@
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -1933,24 +1932,24 @@
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -1959,16 +1958,16 @@
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -1977,16 +1976,16 @@
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="C7" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -1995,16 +1994,16 @@
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="C8" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2013,16 +2012,16 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="C9" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -2031,16 +2030,16 @@
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -2049,16 +2048,16 @@
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -2067,16 +2066,16 @@
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="C12" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -2085,16 +2084,16 @@
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
@@ -2103,16 +2102,16 @@
       <c r="B14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="C14" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="43">
@@ -2121,16 +2120,16 @@
       <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="C15" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
@@ -2139,16 +2138,16 @@
       <c r="B16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -2157,16 +2156,16 @@
       <c r="B17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -2175,16 +2174,16 @@
       <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="C18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -2193,16 +2192,16 @@
       <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -2211,16 +2210,16 @@
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
@@ -2248,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2266,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -2284,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2320,7 +2319,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2392,7 +2391,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2464,7 +2463,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2482,7 +2481,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2500,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2536,7 +2535,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2554,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2590,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2608,7 +2607,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2626,7 +2625,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2643,16 +2642,16 @@
       <c r="B44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
+      <c r="C44" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
@@ -2661,16 +2660,16 @@
       <c r="B45" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
+      <c r="C45" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="50"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
@@ -2679,16 +2678,16 @@
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
+      <c r="C46" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
@@ -2697,16 +2696,16 @@
       <c r="B47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
@@ -2715,16 +2714,16 @@
       <c r="B48" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="47"/>
+      <c r="C48" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="50"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
@@ -2733,16 +2732,16 @@
       <c r="B49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
@@ -2751,16 +2750,16 @@
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="47"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
@@ -2769,16 +2768,16 @@
       <c r="B51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="50"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -2787,16 +2786,16 @@
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="47"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="50"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
@@ -2805,16 +2804,16 @@
       <c r="B53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="47"/>
+      <c r="C53" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="50"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
@@ -2823,16 +2822,16 @@
       <c r="B54" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="47"/>
+      <c r="C54" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
@@ -2841,16 +2840,16 @@
       <c r="B55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="47"/>
+      <c r="C55" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
@@ -2859,16 +2858,16 @@
       <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="50"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="60"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
@@ -2913,16 +2912,16 @@
       <c r="B59" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="47"/>
+      <c r="C59" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="50"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
@@ -2931,16 +2930,16 @@
       <c r="B60" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="47"/>
+      <c r="C60" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="50"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
@@ -2949,16 +2948,16 @@
       <c r="B61" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="47"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="50"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
@@ -2967,16 +2966,16 @@
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="47"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
@@ -3093,16 +3092,16 @@
       <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="47"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="50"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
@@ -3111,16 +3110,16 @@
       <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="47"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
@@ -3129,16 +3128,16 @@
       <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="47"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="50"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
@@ -3148,7 +3147,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -3166,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3183,16 +3182,16 @@
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="50"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="60"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
@@ -3201,16 +3200,16 @@
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="48" t="s">
+      <c r="C75" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="50"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="60"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
@@ -3219,16 +3218,16 @@
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="50"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="60"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
@@ -3237,16 +3236,16 @@
       <c r="B77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="50"/>
+      <c r="C77" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="60"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
@@ -3255,16 +3254,16 @@
       <c r="B78" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="60"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
@@ -3274,7 +3273,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3292,7 +3291,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -3310,7 +3309,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -3328,7 +3327,7 @@
         <v>72</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -3346,7 +3345,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -3364,7 +3363,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3382,7 +3381,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3400,7 +3399,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3418,7 +3417,7 @@
         <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3435,16 +3434,16 @@
       <c r="B88" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="46"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="46"/>
-      <c r="J88" s="47"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="50"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
@@ -3453,16 +3452,16 @@
       <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
-      <c r="I89" s="46"/>
-      <c r="J89" s="47"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="50"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
@@ -3471,116 +3470,116 @@
       <c r="B90" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="45" t="s">
+      <c r="C90" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="46"/>
-      <c r="J90" s="47"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="50"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="44">
         <v>13100</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="50"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>13101</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="50"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>13102</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="50"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>13103</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
-      <c r="I94" s="46"/>
-      <c r="J94" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="50"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>13104</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" s="46"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
+        <v>131</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="50"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>13190</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -3595,10 +3594,10 @@
         <v>13190</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3613,10 +3612,10 @@
         <v>13190</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3631,10 +3630,10 @@
         <v>13190</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3649,10 +3648,10 @@
         <v>13190</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3667,10 +3666,10 @@
         <v>13190</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3685,10 +3684,10 @@
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3703,10 +3702,10 @@
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3721,10 +3720,10 @@
         <v>13191</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3739,10 +3738,10 @@
         <v>13191</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3757,10 +3756,10 @@
         <v>13191</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3775,10 +3774,10 @@
         <v>13191</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3793,10 +3792,10 @@
         <v>13192</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3811,10 +3810,10 @@
         <v>13192</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3829,10 +3828,10 @@
         <v>13192</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3847,10 +3846,10 @@
         <v>13193</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3865,10 +3864,10 @@
         <v>13193</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3883,10 +3882,10 @@
         <v>13193</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3901,10 +3900,10 @@
         <v>13193</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3919,10 +3918,10 @@
         <v>13194</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3937,10 +3936,10 @@
         <v>13194</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3955,10 +3954,10 @@
         <v>13194</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3973,10 +3972,10 @@
         <v>13194</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3991,10 +3990,10 @@
         <v>13194</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4009,10 +4008,10 @@
         <v>13194</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4027,10 +4026,10 @@
         <v>13195</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4045,10 +4044,10 @@
         <v>13195</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4063,10 +4062,10 @@
         <v>13195</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4081,10 +4080,10 @@
         <v>13195</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4101,16 +4100,16 @@
       <c r="B125" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="47"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="50"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
@@ -4210,7 +4209,7 @@
         <v>79</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -4228,7 +4227,7 @@
         <v>79</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -4246,7 +4245,7 @@
         <v>79</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -4259,125 +4258,175 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="47"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="49"/>
+      <c r="J134" s="50"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="47"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
+      <c r="I135" s="49"/>
+      <c r="J135" s="50"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="46"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="47"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
+      <c r="I136" s="49"/>
+      <c r="J136" s="50"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="46"/>
-      <c r="E137" s="46"/>
-      <c r="F137" s="46"/>
-      <c r="G137" s="46"/>
-      <c r="H137" s="46"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="47"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="49"/>
+      <c r="J137" s="50"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="47"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="49"/>
+      <c r="J138" s="50"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="46"/>
-      <c r="F139" s="46"/>
-      <c r="G139" s="46"/>
-      <c r="H139" s="46"/>
-      <c r="I139" s="46"/>
-      <c r="J139" s="47"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="50"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="47"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="49"/>
+      <c r="I140" s="49"/>
+      <c r="J140" s="50"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
-      <c r="I141" s="46"/>
-      <c r="J141" s="47"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="49"/>
+      <c r="I141" s="49"/>
+      <c r="J141" s="50"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
-      <c r="I142" s="46"/>
-      <c r="J142" s="47"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
+      <c r="I142" s="49"/>
+      <c r="J142" s="50"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="46"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
-      <c r="I143" s="46"/>
-      <c r="J143" s="47"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
+      <c r="I143" s="49"/>
+      <c r="J143" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C139:J139"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C125:J125"/>
@@ -4392,58 +4441,8 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:T5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4455,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4471,23 +4470,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -4496,23 +4495,23 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="M2" s="63" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="M2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4521,16 +4520,16 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -4539,16 +4538,16 @@
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -4557,16 +4556,16 @@
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -4575,16 +4574,16 @@
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -4593,16 +4592,16 @@
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="C7" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -4611,16 +4610,16 @@
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="C8" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -4629,16 +4628,16 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
+      <c r="C9" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -4647,16 +4646,16 @@
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="C10" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -4665,16 +4664,16 @@
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -4683,16 +4682,16 @@
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -4701,16 +4700,16 @@
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -4719,16 +4718,16 @@
       <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -4737,16 +4736,16 @@
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -4755,16 +4754,16 @@
       <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -4773,81 +4772,67 @@
       <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4857,6 +4842,20 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4889,34 +4888,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4936,17 +4935,17 @@
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4966,17 +4965,17 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4996,17 +4995,17 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,22 +5022,22 @@
         <v>1</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5058,13 +5057,13 @@
         <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -5083,13 +5082,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -5107,13 +5106,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>213</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5131,16 +5130,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5160,13 +5159,13 @@
         <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F6728-B4D5-4E8A-9F00-EEBA14BEB6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACED33C-A705-4AD2-9710-D0F2D0EBB960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>푹신침낭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점에서 잉크를 구해오자!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,6 +977,9 @@
   <si>
     <t>잠을 자면… 밤에 나타나는 나이트몬스터와 조우하지 않고 아침을 맞을 수 있다네…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신침낭</t>
   </si>
 </sst>
 </file>
@@ -1282,6 +1281,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1290,27 +1310,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1647,9 +1646,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1670,7 +1669,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1691,7 +1690,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1712,7 +1711,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1733,7 +1732,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1754,7 +1753,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1775,7 +1774,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1807,46 +1806,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="M1" s="54" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+      <c r="M1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="53"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>11000</v>
       </c>
@@ -1863,18 +1862,18 @@
       <c r="H2" s="46"/>
       <c r="I2" s="46"/>
       <c r="J2" s="47"/>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>11000</v>
       </c>
@@ -1891,140 +1890,140 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="47"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>11090</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>11090</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>11100</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -2042,7 +2041,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -2060,7 +2059,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11100</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -2078,7 +2077,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>11200</v>
       </c>
@@ -2096,7 +2095,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>11200</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -2114,7 +2113,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="43">
         <v>11300</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -2132,7 +2131,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>11301</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -2150,7 +2149,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>11302</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -2168,7 +2167,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>11302</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -2186,7 +2185,7 @@
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>11303</v>
       </c>
@@ -2204,7 +2203,7 @@
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>11303</v>
       </c>
@@ -2222,7 +2221,7 @@
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>11390</v>
       </c>
@@ -2240,7 +2239,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>11390</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2258,7 +2257,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>11390</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -2276,7 +2275,7 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>11391</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2294,7 +2293,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>11391</v>
       </c>
@@ -2312,7 +2311,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>11391</v>
       </c>
@@ -2330,7 +2329,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>11391</v>
       </c>
@@ -2348,7 +2347,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
@@ -2366,7 +2365,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>11391</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
@@ -2402,7 +2401,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>11391</v>
       </c>
@@ -2420,7 +2419,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>11391</v>
       </c>
@@ -2438,7 +2437,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>11392</v>
       </c>
@@ -2456,7 +2455,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
         <v>11392</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2474,7 +2473,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>11393</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2492,7 +2491,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>11393</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2510,7 +2509,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>11393</v>
       </c>
@@ -2528,7 +2527,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>11393</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2546,7 +2545,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>11393</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2564,7 +2563,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>11393</v>
       </c>
@@ -2582,7 +2581,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>11394</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2600,7 +2599,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>11394</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2618,7 +2617,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>11394</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2636,7 +2635,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <v>11400</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
@@ -2654,7 +2653,7 @@
       <c r="I44" s="46"/>
       <c r="J44" s="47"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <v>11400</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
@@ -2672,25 +2671,25 @@
       <c r="I45" s="46"/>
       <c r="J45" s="47"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <v>11500</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <v>11500</v>
       </c>
@@ -2708,7 +2707,7 @@
       <c r="I47" s="46"/>
       <c r="J47" s="47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="41">
         <v>11501</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
@@ -2726,7 +2725,7 @@
       <c r="I48" s="46"/>
       <c r="J48" s="47"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>11600</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="I49" s="46"/>
       <c r="J49" s="47"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>11600</v>
       </c>
@@ -2762,7 +2761,7 @@
       <c r="I50" s="46"/>
       <c r="J50" s="47"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>11600</v>
       </c>
@@ -2780,7 +2779,7 @@
       <c r="I51" s="46"/>
       <c r="J51" s="47"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>11600</v>
       </c>
@@ -2798,7 +2797,7 @@
       <c r="I52" s="46"/>
       <c r="J52" s="47"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="41">
         <v>11700</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
@@ -2816,7 +2815,7 @@
       <c r="I53" s="46"/>
       <c r="J53" s="47"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="41">
         <v>11700</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
@@ -2834,7 +2833,7 @@
       <c r="I54" s="46"/>
       <c r="J54" s="47"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>11701</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
@@ -2852,7 +2851,7 @@
       <c r="I55" s="46"/>
       <c r="J55" s="47"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
         <v>11790</v>
       </c>
@@ -2870,7 +2869,7 @@
       <c r="I56" s="49"/>
       <c r="J56" s="50"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>11790</v>
       </c>
@@ -2888,7 +2887,7 @@
       <c r="I57" s="29"/>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="18">
         <v>11790</v>
       </c>
@@ -2906,7 +2905,7 @@
       <c r="I58" s="29"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="41">
         <v>11800</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>70</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" s="46"/>
       <c r="E59" s="46"/>
@@ -2924,7 +2923,7 @@
       <c r="I59" s="46"/>
       <c r="J59" s="47"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="41">
         <v>11800</v>
       </c>
@@ -2932,7 +2931,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
@@ -2942,7 +2941,7 @@
       <c r="I60" s="46"/>
       <c r="J60" s="47"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="41">
         <v>11801</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="I61" s="46"/>
       <c r="J61" s="47"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>11801</v>
       </c>
@@ -2978,7 +2977,7 @@
       <c r="I62" s="46"/>
       <c r="J62" s="47"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>11890</v>
       </c>
@@ -2996,7 +2995,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="18">
         <v>11890</v>
       </c>
@@ -3014,7 +3013,7 @@
       <c r="I64" s="39"/>
       <c r="J64" s="40"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>11890</v>
       </c>
@@ -3032,7 +3031,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
@@ -3050,7 +3049,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>11890</v>
       </c>
@@ -3068,7 +3067,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>11890</v>
       </c>
@@ -3086,7 +3085,7 @@
       <c r="I68" s="29"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="6">
         <v>12000</v>
       </c>
@@ -3104,7 +3103,7 @@
       <c r="I69" s="46"/>
       <c r="J69" s="47"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>12000</v>
       </c>
@@ -3122,7 +3121,7 @@
       <c r="I70" s="46"/>
       <c r="J70" s="47"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>12000</v>
       </c>
@@ -3140,7 +3139,7 @@
       <c r="I71" s="46"/>
       <c r="J71" s="47"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="41">
         <v>12100</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -3158,7 +3157,7 @@
       <c r="I72" s="36"/>
       <c r="J72" s="37"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="26">
         <v>12101</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3176,7 +3175,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>12190</v>
       </c>
@@ -3194,7 +3193,7 @@
       <c r="I74" s="49"/>
       <c r="J74" s="50"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>12190</v>
       </c>
@@ -3212,7 +3211,7 @@
       <c r="I75" s="49"/>
       <c r="J75" s="50"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>12190</v>
       </c>
@@ -3230,7 +3229,7 @@
       <c r="I76" s="49"/>
       <c r="J76" s="50"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>12190</v>
       </c>
@@ -3238,7 +3237,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
@@ -3248,7 +3247,7 @@
       <c r="I77" s="49"/>
       <c r="J77" s="50"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>12190</v>
       </c>
@@ -3266,7 +3265,7 @@
       <c r="I78" s="49"/>
       <c r="J78" s="50"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>12191</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3284,7 +3283,7 @@
       <c r="I79" s="32"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
         <v>12191</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -3302,7 +3301,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="40"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
         <v>12191</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -3320,7 +3319,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="40"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="18">
         <v>12191</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>72</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -3338,7 +3337,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="40"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>12191</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -3356,7 +3355,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="40"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="18">
         <v>12191</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3374,7 +3373,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>12191</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3392,7 +3391,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="18">
         <v>12191</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3410,7 +3409,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>12191</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3428,7 +3427,7 @@
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="41">
         <v>13000</v>
       </c>
@@ -3446,7 +3445,7 @@
       <c r="I88" s="46"/>
       <c r="J88" s="47"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
         <v>13000</v>
       </c>
@@ -3464,7 +3463,7 @@
       <c r="I89" s="46"/>
       <c r="J89" s="47"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="41">
         <v>13000</v>
       </c>
@@ -3482,15 +3481,15 @@
       <c r="I90" s="46"/>
       <c r="J90" s="47"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="44">
         <v>13100</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="46"/>
       <c r="E91" s="46"/>
@@ -3500,15 +3499,15 @@
       <c r="I91" s="46"/>
       <c r="J91" s="47"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="41">
         <v>13101</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" s="46"/>
       <c r="E92" s="46"/>
@@ -3518,15 +3517,15 @@
       <c r="I92" s="46"/>
       <c r="J92" s="47"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="41">
         <v>13102</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D93" s="46"/>
       <c r="E93" s="46"/>
@@ -3536,15 +3535,15 @@
       <c r="I93" s="46"/>
       <c r="J93" s="47"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="41">
         <v>13103</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" s="46"/>
       <c r="E94" s="46"/>
@@ -3554,15 +3553,15 @@
       <c r="I94" s="46"/>
       <c r="J94" s="47"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="16">
         <v>13104</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" s="46"/>
       <c r="E95" s="46"/>
@@ -3572,15 +3571,15 @@
       <c r="I95" s="46"/>
       <c r="J95" s="47"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>13190</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -3590,15 +3589,15 @@
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>13190</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3608,15 +3607,15 @@
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="18">
         <v>13190</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3626,15 +3625,15 @@
       <c r="I98" s="39"/>
       <c r="J98" s="40"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="18">
         <v>13190</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3644,15 +3643,15 @@
       <c r="I99" s="39"/>
       <c r="J99" s="40"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="18">
         <v>13190</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3662,15 +3661,15 @@
       <c r="I100" s="39"/>
       <c r="J100" s="40"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="18">
         <v>13190</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3680,15 +3679,15 @@
       <c r="I101" s="39"/>
       <c r="J101" s="40"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3698,15 +3697,15 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3716,15 +3715,15 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
         <v>13191</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3734,15 +3733,15 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
         <v>13191</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3752,15 +3751,15 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
         <v>13191</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3770,15 +3769,15 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>13191</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3788,15 +3787,15 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
         <v>13192</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3806,15 +3805,15 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>13192</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3824,15 +3823,15 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
         <v>13192</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3842,15 +3841,15 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>13193</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3860,15 +3859,15 @@
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
         <v>13193</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3878,15 +3877,15 @@
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="18">
         <v>13193</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3896,15 +3895,15 @@
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="18">
         <v>13193</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3914,15 +3913,15 @@
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="18">
         <v>13194</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3932,15 +3931,15 @@
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="18">
         <v>13194</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3950,15 +3949,15 @@
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="18">
         <v>13194</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3968,15 +3967,15 @@
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="18">
         <v>13194</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3986,15 +3985,15 @@
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="18">
         <v>13194</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4004,15 +4003,15 @@
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="18">
         <v>13194</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4022,15 +4021,15 @@
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="18">
         <v>13195</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4040,15 +4039,15 @@
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="18">
         <v>13195</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4058,15 +4057,15 @@
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="18">
         <v>13195</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4076,15 +4075,15 @@
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="18">
         <v>13195</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4094,7 +4093,7 @@
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="43">
         <v>14000</v>
       </c>
@@ -4112,7 +4111,7 @@
       <c r="I125" s="46"/>
       <c r="J125" s="47"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
         <v>14090</v>
       </c>
@@ -4130,7 +4129,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="18">
         <v>14090</v>
       </c>
@@ -4148,7 +4147,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="18">
         <v>14090</v>
       </c>
@@ -4166,7 +4165,7 @@
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="18">
         <v>14090</v>
       </c>
@@ -4184,7 +4183,7 @@
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="18">
         <v>14090</v>
       </c>
@@ -4202,7 +4201,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="18">
         <v>14090</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>79</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -4220,7 +4219,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="40"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="18">
         <v>14091</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>79</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -4238,7 +4237,7 @@
       <c r="I132" s="39"/>
       <c r="J132" s="40"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="18">
         <v>14091</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>79</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -4256,7 +4255,7 @@
       <c r="I133" s="39"/>
       <c r="J133" s="40"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="45"/>
@@ -4268,7 +4267,7 @@
       <c r="I134" s="46"/>
       <c r="J134" s="47"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="45"/>
@@ -4280,7 +4279,7 @@
       <c r="I135" s="46"/>
       <c r="J135" s="47"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="45"/>
@@ -4292,7 +4291,7 @@
       <c r="I136" s="46"/>
       <c r="J136" s="47"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="45"/>
@@ -4304,7 +4303,7 @@
       <c r="I137" s="46"/>
       <c r="J137" s="47"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="45"/>
@@ -4316,7 +4315,7 @@
       <c r="I138" s="46"/>
       <c r="J138" s="47"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="45"/>
@@ -4328,7 +4327,7 @@
       <c r="I139" s="46"/>
       <c r="J139" s="47"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="45"/>
@@ -4340,7 +4339,7 @@
       <c r="I140" s="46"/>
       <c r="J140" s="47"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="45"/>
@@ -4352,7 +4351,7 @@
       <c r="I141" s="46"/>
       <c r="J141" s="47"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="45"/>
@@ -4364,7 +4363,7 @@
       <c r="I142" s="46"/>
       <c r="J142" s="47"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="45"/>
@@ -4392,6 +4391,8 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C46:J46"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
@@ -4402,8 +4403,6 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C46:J46"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C49:J49"/>
@@ -4459,12 +4458,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -4489,7 +4488,7 @@
       <c r="P1" s="64"/>
       <c r="Q1" s="64"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>20001</v>
       </c>
@@ -4514,7 +4513,7 @@
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="I4" s="46"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
@@ -4568,7 +4567,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
@@ -4586,7 +4585,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
@@ -4604,14 +4603,14 @@
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="58" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="46"/>
@@ -4622,7 +4621,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>20006</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
@@ -4658,7 +4657,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
@@ -4676,7 +4675,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
@@ -4694,7 +4693,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
@@ -4712,7 +4711,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
@@ -4730,7 +4729,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
@@ -4748,7 +4747,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="61"/>
@@ -4796,7 +4795,7 @@
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="62"/>
@@ -4808,7 +4807,7 @@
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="61"/>
@@ -4820,7 +4819,7 @@
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="61"/>
@@ -4866,28 +4865,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="86.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>110</v>
       </c>
@@ -4912,14 +4910,14 @@
       <c r="H1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -4942,14 +4940,14 @@
         <v>127</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="M2" s="12">
+      <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -4966,20 +4964,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="26"/>
-      <c r="M3" s="12">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -4999,17 +4997,17 @@
         <v>111</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="M4" s="12">
+      <c r="J4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -5020,28 +5018,28 @@
         <v>11890</v>
       </c>
       <c r="D5" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="J5" s="12">
         <v>3</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -5058,18 +5056,18 @@
         <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -5083,17 +5081,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -5107,17 +5105,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>213</v>
-      </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -5128,22 +5126,22 @@
         <v>13195</v>
       </c>
       <c r="D9" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>173</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5160,13 +5158,13 @@
         <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5181,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB27322-F782-4B45-BCF7-2A96C7D60514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C1874B-B25C-4388-BCEE-0B6427D75774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -587,10 +587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>푹신침낭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상점에서 잉크를 구해오자!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,6 +976,9 @@
   <si>
     <t>나무 근처에는 반딧불이들이 서식하는데, 초록빛으로 빛나는 반딧불이들의 향연은 섬에서 손 꼽히는 아름다운 광경이라고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭신침낭</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1126,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,6 +1262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1281,6 +1283,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,15 +1302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,9 +1648,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1671,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1690,7 +1692,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1711,7 +1713,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1732,7 +1734,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1774,7 +1776,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1810,418 +1812,418 @@
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="M1" s="51" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="M1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>11000</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="M2" s="54" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="M2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>11000</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>11090</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>11090</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>11100</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11100</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>11200</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
         <v>11200</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="43">
         <v>11300</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
         <v>11301</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>11302</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>11302</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>11303</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>11303</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>11390</v>
       </c>
@@ -2239,7 +2241,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>11390</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2257,7 +2259,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>11390</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -2275,7 +2277,7 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="18">
         <v>11391</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2293,7 +2295,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
         <v>11391</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
         <v>11391</v>
       </c>
@@ -2329,7 +2331,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>11391</v>
       </c>
@@ -2347,7 +2349,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
@@ -2365,7 +2367,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>11391</v>
       </c>
@@ -2383,7 +2385,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
@@ -2401,7 +2403,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>11391</v>
       </c>
@@ -2419,7 +2421,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>11391</v>
       </c>
@@ -2437,7 +2439,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
         <v>11392</v>
       </c>
@@ -2455,7 +2457,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
         <v>11392</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2473,7 +2475,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
         <v>11393</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2491,7 +2493,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>11393</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2509,7 +2511,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
         <v>11393</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>11393</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2545,7 +2547,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>11393</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2563,7 +2565,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>11393</v>
       </c>
@@ -2581,7 +2583,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
         <v>11394</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2599,7 +2601,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
         <v>11394</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2617,7 +2619,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
         <v>11394</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2635,241 +2637,241 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <v>11400</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <v>11400</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="50"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C45" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <v>11500</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <v>11500</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="50"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="41">
         <v>11501</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C48" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>11600</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>11600</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>11600</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="50"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>11600</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="41">
         <v>11700</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="50"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="51"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="41">
         <v>11700</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="50"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="51"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>11701</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="50"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="51"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
         <v>11790</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="60"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="61"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
         <v>11790</v>
       </c>
@@ -2887,7 +2889,7 @@
       <c r="I57" s="29"/>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="18">
         <v>11790</v>
       </c>
@@ -2905,79 +2907,79 @@
       <c r="I58" s="29"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="41">
         <v>11800</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="50"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="41">
         <v>11800</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="50"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="41">
         <v>11801</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="50"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="51"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>11801</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="51"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
         <v>11890</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="18">
         <v>11890</v>
       </c>
@@ -3013,7 +3015,7 @@
       <c r="I64" s="39"/>
       <c r="J64" s="40"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="18">
         <v>11890</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
@@ -3049,7 +3051,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>11890</v>
       </c>
@@ -3067,7 +3069,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>11890</v>
       </c>
@@ -3085,61 +3087,61 @@
       <c r="I68" s="29"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="6">
         <v>12000</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="50"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>12000</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="50"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="51"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>12000</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="50"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="51"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="41">
         <v>12100</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -3157,7 +3159,7 @@
       <c r="I72" s="36"/>
       <c r="J72" s="37"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="26">
         <v>12101</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3175,97 +3177,97 @@
       <c r="I73" s="22"/>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="18">
         <v>12190</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="61"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
         <v>12190</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="60"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="61"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
         <v>12190</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="60"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="61"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
         <v>12190</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C77" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="61"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>12190</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="60"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="61"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
         <v>12191</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3283,7 +3285,7 @@
       <c r="I79" s="32"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
         <v>12191</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -3301,7 +3303,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="40"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
         <v>12191</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -3319,7 +3321,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="40"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="18">
         <v>12191</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>72</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -3337,7 +3339,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="40"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>12191</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -3355,7 +3357,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="40"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="18">
         <v>12191</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3373,7 +3375,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>12191</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3391,7 +3393,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="18">
         <v>12191</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3409,7 +3411,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>12191</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3427,159 +3429,159 @@
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="41">
         <v>13000</v>
       </c>
       <c r="B88" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="50"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="51"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
         <v>13000</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="50"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="51"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="41">
         <v>13000</v>
       </c>
       <c r="B90" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="50"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="51"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="44">
         <v>13100</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="50"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="51"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="41">
         <v>13101</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="50"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="51"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="41">
         <v>13102</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="50"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C93" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="51"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="41">
         <v>13103</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="50"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C94" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="51"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="16">
         <v>13104</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="50"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="51"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>13190</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -3589,15 +3591,15 @@
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>13190</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3607,15 +3609,15 @@
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="18">
         <v>13190</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3625,15 +3627,15 @@
       <c r="I98" s="39"/>
       <c r="J98" s="40"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="18">
         <v>13190</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3643,15 +3645,15 @@
       <c r="I99" s="39"/>
       <c r="J99" s="40"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="18">
         <v>13190</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3661,15 +3663,15 @@
       <c r="I100" s="39"/>
       <c r="J100" s="40"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="18">
         <v>13190</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3679,15 +3681,15 @@
       <c r="I101" s="39"/>
       <c r="J101" s="40"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3697,15 +3699,15 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3715,15 +3717,15 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
         <v>13191</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3733,15 +3735,15 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
         <v>13191</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3751,15 +3753,15 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
         <v>13191</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3769,15 +3771,15 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
         <v>13191</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3787,15 +3789,15 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
         <v>13192</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3805,15 +3807,15 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
         <v>13192</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3823,15 +3825,15 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
         <v>13192</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3841,15 +3843,15 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
         <v>13193</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3859,15 +3861,15 @@
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
         <v>13193</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3877,15 +3879,15 @@
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="18">
         <v>13193</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3895,15 +3897,15 @@
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="18">
         <v>13193</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3913,15 +3915,15 @@
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="18">
         <v>13194</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3931,15 +3933,15 @@
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="18">
         <v>13194</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3949,15 +3951,15 @@
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="18">
         <v>13194</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3967,15 +3969,15 @@
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="18">
         <v>13194</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3985,15 +3987,15 @@
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="18">
         <v>13194</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4003,15 +4005,15 @@
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="18">
         <v>13194</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4021,15 +4023,15 @@
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="18">
         <v>13195</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4039,15 +4041,15 @@
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="18">
         <v>13195</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4057,15 +4059,15 @@
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="18">
         <v>13195</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4075,15 +4077,15 @@
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="18">
         <v>13195</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4093,25 +4095,25 @@
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="43">
         <v>14000</v>
       </c>
       <c r="B125" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C125" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="50"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="51"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
         <v>14090</v>
       </c>
@@ -4129,7 +4131,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="18">
         <v>14090</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="18">
         <v>14090</v>
       </c>
@@ -4165,7 +4167,7 @@
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="18">
         <v>14090</v>
       </c>
@@ -4183,7 +4185,7 @@
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="18">
         <v>14090</v>
       </c>
@@ -4201,7 +4203,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="18">
         <v>14090</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>79</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -4219,7 +4221,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="40"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="18">
         <v>14091</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>79</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -4237,7 +4239,7 @@
       <c r="I132" s="39"/>
       <c r="J132" s="40"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="18">
         <v>14091</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>79</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -4255,125 +4257,125 @@
       <c r="I133" s="39"/>
       <c r="J133" s="40"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
-      <c r="J134" s="50"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C134" s="49"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="51"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="48"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="50"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C135" s="49"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="51"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="48"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="50"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C136" s="49"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="51"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="50"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C137" s="49"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="51"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="48"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="49"/>
-      <c r="J138" s="50"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C138" s="49"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="50"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="51"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="49"/>
-      <c r="J139" s="50"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C139" s="49"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
+      <c r="J139" s="51"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="49"/>
-      <c r="H140" s="49"/>
-      <c r="I140" s="49"/>
-      <c r="J140" s="50"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C140" s="49"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="51"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49"/>
-      <c r="H141" s="49"/>
-      <c r="I141" s="49"/>
-      <c r="J141" s="50"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C141" s="49"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="51"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="48"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="49"/>
-      <c r="H142" s="49"/>
-      <c r="I142" s="49"/>
-      <c r="J142" s="50"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C142" s="49"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="51"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="49"/>
-      <c r="H143" s="49"/>
-      <c r="I143" s="49"/>
-      <c r="J143" s="50"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
+      <c r="J143" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4454,382 +4456,382 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="M1" s="63" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="M1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>20001</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="M2" s="62" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="M2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>20006</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="66"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4867,26 +4869,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="86.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="18.09765625" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>109</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -4948,7 +4950,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -4958,17 +4960,17 @@
       <c r="C3" s="26">
         <v>11392</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="45">
         <v>2</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
@@ -4978,7 +4980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -4988,7 +4990,7 @@
       <c r="C4" s="26">
         <v>11394</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="45">
         <v>1</v>
       </c>
       <c r="E4" s="25" t="s">
@@ -4998,7 +5000,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
@@ -5008,7 +5010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -5018,20 +5020,20 @@
       <c r="C5" s="26">
         <v>11890</v>
       </c>
-      <c r="D5" s="26">
-        <v>1</v>
+      <c r="D5" s="45">
+        <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>193</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
@@ -5040,7 +5042,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -5050,25 +5052,25 @@
       <c r="C6" s="26">
         <v>12191</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="45">
         <v>2</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -5078,21 +5080,21 @@
       <c r="C7" s="26">
         <v>13191</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="45">
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -5102,21 +5104,21 @@
       <c r="C8" s="41">
         <v>13193</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="45">
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>212</v>
-      </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -5126,23 +5128,23 @@
       <c r="C9" s="41">
         <v>13195</v>
       </c>
-      <c r="D9" s="26">
-        <v>2</v>
+      <c r="D9" s="45">
+        <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5152,20 +5154,20 @@
       <c r="C10" s="41">
         <v>14091</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="45">
         <v>2</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5182,7 +5184,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C1874B-B25C-4388-BCEE-0B6427D75774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A84537-E21E-42FA-B481-58E53D6C5F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -925,10 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵을 돌아다니며 민트불가사리 15마리를 채집해 마녀에게 건내자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일하는 중이네. 방해하지 마시게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,6 +975,10 @@
   </si>
   <si>
     <t>폭신침낭</t>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 민트불가사리 10마리를 채집해 마녀에게 건내자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1265,6 +1265,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1275,15 +1305,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1292,28 +1313,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,10 +1325,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,26 +1826,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="M1" s="55" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="M1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="57"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
@@ -1854,26 +1854,26 @@
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="M2" s="58" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="M2" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
@@ -1882,24 +1882,24 @@
       <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
@@ -1908,24 +1908,24 @@
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
@@ -1934,24 +1934,24 @@
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
@@ -1960,16 +1960,16 @@
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
@@ -1978,16 +1978,16 @@
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
@@ -1996,16 +1996,16 @@
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
@@ -2014,16 +2014,16 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+      <c r="C9" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
@@ -2032,16 +2032,16 @@
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
@@ -2050,16 +2050,16 @@
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
@@ -2068,16 +2068,16 @@
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -2086,16 +2086,16 @@
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="41">
@@ -2104,16 +2104,16 @@
       <c r="B14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="C14" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="43">
@@ -2122,16 +2122,16 @@
       <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="41">
@@ -2140,16 +2140,16 @@
       <c r="B16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
@@ -2158,16 +2158,16 @@
       <c r="B17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
@@ -2176,16 +2176,16 @@
       <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
@@ -2194,16 +2194,16 @@
       <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
@@ -2212,16 +2212,16 @@
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
@@ -2285,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2644,16 +2644,16 @@
       <c r="B44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
@@ -2662,16 +2662,16 @@
       <c r="B45" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
@@ -2680,16 +2680,16 @@
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
@@ -2698,16 +2698,16 @@
       <c r="B47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="41">
@@ -2716,16 +2716,16 @@
       <c r="B48" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
@@ -2734,16 +2734,16 @@
       <c r="B49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="51"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
@@ -2752,16 +2752,16 @@
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
@@ -2770,16 +2770,16 @@
       <c r="B51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
@@ -2788,16 +2788,16 @@
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="41">
@@ -2806,16 +2806,16 @@
       <c r="B53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="41">
@@ -2824,16 +2824,16 @@
       <c r="B54" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="51"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
@@ -2842,16 +2842,16 @@
       <c r="B55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="51"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="18">
@@ -2860,16 +2860,16 @@
       <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="51"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="18">
@@ -2914,16 +2914,16 @@
       <c r="B59" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="41">
@@ -2932,16 +2932,16 @@
       <c r="B60" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
+      <c r="C60" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="41">
@@ -2950,16 +2950,16 @@
       <c r="B61" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="51"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="48"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
@@ -2968,16 +2968,16 @@
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="51"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="48"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="18">
@@ -3094,16 +3094,16 @@
       <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="51"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
@@ -3112,16 +3112,16 @@
       <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="51"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="48"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
@@ -3130,16 +3130,16 @@
       <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="51"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="48"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="41">
@@ -3184,16 +3184,16 @@
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="18">
@@ -3202,16 +3202,16 @@
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="61"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="51"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="18">
@@ -3220,16 +3220,16 @@
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C76" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="61"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="51"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="18">
@@ -3238,16 +3238,16 @@
       <c r="B77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C77" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="51"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
@@ -3256,16 +3256,16 @@
       <c r="B78" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="51"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
@@ -3401,7 +3401,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3436,16 +3436,16 @@
       <c r="B88" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="51"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="48"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="16">
@@ -3454,16 +3454,16 @@
       <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="51"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="48"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="41">
@@ -3472,16 +3472,16 @@
       <c r="B90" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="51"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="48"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="44">
@@ -3490,16 +3490,16 @@
       <c r="B91" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="51"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="48"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="41">
@@ -3508,16 +3508,16 @@
       <c r="B92" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="51"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="48"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="41">
@@ -3526,16 +3526,16 @@
       <c r="B93" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="51"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="48"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="41">
@@ -3544,16 +3544,16 @@
       <c r="B94" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="51"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="48"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="16">
@@ -3562,16 +3562,16 @@
       <c r="B95" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="51"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="48"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
@@ -3707,7 +3707,7 @@
         <v>130</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -4102,16 +4102,16 @@
       <c r="B125" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="51"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="48"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
@@ -4260,175 +4260,125 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
-      <c r="J134" s="51"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="48"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="51"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="48"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
-      <c r="J136" s="51"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="48"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="51"/>
+      <c r="C137" s="46"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="48"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="51"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="48"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="51"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="48"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
-      <c r="J140" s="51"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="48"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="51"/>
+      <c r="C141" s="46"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="48"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="51"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="48"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="51"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:T5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C125:J125"/>
@@ -4445,6 +4395,56 @@
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C139:J139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4472,23 +4472,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
@@ -4497,23 +4497,23 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="M2" s="63" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="M2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
@@ -4522,16 +4522,16 @@
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
@@ -4540,16 +4540,16 @@
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -4558,16 +4558,16 @@
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
@@ -4576,16 +4576,16 @@
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -4594,16 +4594,16 @@
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -4612,16 +4612,16 @@
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
+      <c r="C8" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
@@ -4630,16 +4630,16 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
@@ -4648,16 +4648,16 @@
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
@@ -4666,16 +4666,16 @@
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
@@ -4684,16 +4684,16 @@
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
@@ -4702,16 +4702,16 @@
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
@@ -4720,16 +4720,16 @@
       <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
@@ -4738,16 +4738,16 @@
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
@@ -4756,16 +4756,16 @@
       <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
@@ -4774,67 +4774,81 @@
       <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4844,20 +4858,6 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4870,7 +4870,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5065,7 +5065,7 @@
         <v>131</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -5114,7 +5114,7 @@
         <v>210</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5164,7 +5164,7 @@
         <v>209</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>193</v>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C1874B-B25C-4388-BCEE-0B6427D75774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3DAC6-1E73-4670-B8CC-76A8DDE615FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 절벽을 오르려면 많은 기력이 필요합니다. (최소 태양석 ?개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>썬샤인 아일랜드의 정상. (해발 112m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,6 +975,10 @@
   </si>
   <si>
     <t>폭신침낭</t>
+  </si>
+  <si>
+    <t>이 절벽을 오르려면 많은 기력이 필요합니다. (최소 태양석 9개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1265,6 +1265,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1275,15 +1305,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1292,28 +1313,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,10 +1325,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,9 +1648,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1692,7 +1692,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1812,418 +1812,418 @@
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="M1" s="55" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="M1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="57"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>11000</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="M2" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C2" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="M2" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>11000</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>11090</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C4" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>11090</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C9" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>11100</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C10" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C11" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11100</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C12" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11200</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C13" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>11200</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C14" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="43">
         <v>11300</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C15" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>11301</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>11302</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>11302</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>11303</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11303</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>11390</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>11390</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
@@ -2259,7 +2259,7 @@
       <c r="I22" s="39"/>
       <c r="J22" s="40"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>11390</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -2277,7 +2277,7 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>11391</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2295,7 +2295,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>11391</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>11391</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2331,7 +2331,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>11391</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>11391</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2385,7 +2385,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2403,7 +2403,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>11391</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2421,7 +2421,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>11391</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>11392</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>11392</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2475,7 +2475,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>11393</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2493,7 +2493,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>11393</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2511,7 +2511,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>11393</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>11393</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2547,7 +2547,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>11393</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2565,7 +2565,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>11393</v>
       </c>
@@ -2583,7 +2583,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>11394</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2601,7 +2601,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>11394</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2619,7 +2619,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>11394</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2637,241 +2637,241 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>11400</v>
       </c>
       <c r="B44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C44" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>11400</v>
       </c>
       <c r="B45" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C45" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="48"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>11500</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C46" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>11500</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>11501</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C48" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>11600</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="51"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="48"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>11600</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="48"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>11600</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="48"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>11600</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>11700</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C53" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>11700</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="51"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C54" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>11701</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="51"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C55" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="48"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>11790</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="51"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>11790</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="I57" s="29"/>
       <c r="J57" s="30"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>11790</v>
       </c>
@@ -2907,79 +2907,79 @@
       <c r="I58" s="29"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>11800</v>
       </c>
       <c r="B59" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C59" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="48"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>11800</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C60" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="48"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>11801</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="51"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="48"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>11801</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="51"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="48"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>11890</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="I63" s="39"/>
       <c r="J63" s="40"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>11890</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="I64" s="39"/>
       <c r="J64" s="40"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>11890</v>
       </c>
@@ -3033,7 +3033,7 @@
       <c r="I65" s="39"/>
       <c r="J65" s="40"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="I66" s="29"/>
       <c r="J66" s="30"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>11890</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="I67" s="29"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>11890</v>
       </c>
@@ -3087,61 +3087,61 @@
       <c r="I68" s="29"/>
       <c r="J68" s="30"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>12000</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="51"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C69" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="48"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>12000</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="51"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="48"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>12000</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="51"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="48"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>12100</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
@@ -3159,7 +3159,7 @@
       <c r="I72" s="36"/>
       <c r="J72" s="37"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>12101</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
@@ -3177,97 +3177,97 @@
       <c r="I73" s="22"/>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>12190</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C74" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>12190</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="61"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C75" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="51"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>12190</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="61"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C76" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="51"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>12190</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="61"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C77" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="51"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>12190</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C78" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="51"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>12191</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>72</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3285,7 +3285,7 @@
       <c r="I79" s="32"/>
       <c r="J79" s="33"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>12191</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>72</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -3303,7 +3303,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="40"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>12191</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>72</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -3321,7 +3321,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="40"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>12191</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>72</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -3339,7 +3339,7 @@
       <c r="I82" s="39"/>
       <c r="J82" s="40"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>12191</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -3357,7 +3357,7 @@
       <c r="I83" s="39"/>
       <c r="J83" s="40"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>12191</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>72</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3375,7 +3375,7 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>12191</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3393,7 +3393,7 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>12191</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>72</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3411,7 +3411,7 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>12191</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>72</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3429,159 +3429,159 @@
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>13000</v>
       </c>
       <c r="B88" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="51"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="48"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>13000</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="51"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="48"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>13000</v>
       </c>
       <c r="B90" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="51"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="48"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="44">
         <v>13100</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="50"/>
-      <c r="J91" s="51"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="48"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>13101</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
-      <c r="J92" s="51"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="48"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>13102</v>
       </c>
       <c r="B93" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="51"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="48"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>13103</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50"/>
-      <c r="J94" s="51"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="48"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>13104</v>
       </c>
       <c r="B95" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="51"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="48"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>13190</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D96" s="39"/>
       <c r="E96" s="39"/>
@@ -3591,15 +3591,15 @@
       <c r="I96" s="39"/>
       <c r="J96" s="40"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>13190</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="39"/>
       <c r="E97" s="39"/>
@@ -3609,15 +3609,15 @@
       <c r="I97" s="39"/>
       <c r="J97" s="40"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>13190</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D98" s="39"/>
       <c r="E98" s="39"/>
@@ -3627,15 +3627,15 @@
       <c r="I98" s="39"/>
       <c r="J98" s="40"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>13190</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D99" s="39"/>
       <c r="E99" s="39"/>
@@ -3645,15 +3645,15 @@
       <c r="I99" s="39"/>
       <c r="J99" s="40"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>13190</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D100" s="39"/>
       <c r="E100" s="39"/>
@@ -3663,15 +3663,15 @@
       <c r="I100" s="39"/>
       <c r="J100" s="40"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>13190</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D101" s="39"/>
       <c r="E101" s="39"/>
@@ -3681,15 +3681,15 @@
       <c r="I101" s="39"/>
       <c r="J101" s="40"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3699,15 +3699,15 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3717,15 +3717,15 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>13191</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3735,15 +3735,15 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>13191</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3753,15 +3753,15 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>13191</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3771,15 +3771,15 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>13191</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3789,15 +3789,15 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>13192</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3807,15 +3807,15 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>13192</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3825,15 +3825,15 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>13192</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3843,15 +3843,15 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>13193</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3861,15 +3861,15 @@
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>13193</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3879,15 +3879,15 @@
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>13193</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3897,15 +3897,15 @@
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>13193</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3915,15 +3915,15 @@
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>13194</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3933,15 +3933,15 @@
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>13194</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3951,15 +3951,15 @@
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>13194</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3969,15 +3969,15 @@
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>13194</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3987,15 +3987,15 @@
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>13194</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4005,15 +4005,15 @@
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>13194</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4023,15 +4023,15 @@
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>13195</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4041,15 +4041,15 @@
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>13195</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4059,15 +4059,15 @@
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>13195</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4077,15 +4077,15 @@
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>13195</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4095,25 +4095,25 @@
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="43">
         <v>14000</v>
       </c>
       <c r="B125" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="50"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="51"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="48"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>14090</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>14090</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>14090</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>14090</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>14090</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="18">
         <v>14090</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>79</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D131" s="39"/>
       <c r="E131" s="39"/>
@@ -4221,7 +4221,7 @@
       <c r="I131" s="39"/>
       <c r="J131" s="40"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
         <v>14091</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>79</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D132" s="39"/>
       <c r="E132" s="39"/>
@@ -4239,7 +4239,7 @@
       <c r="I132" s="39"/>
       <c r="J132" s="40"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>14091</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>79</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D133" s="39"/>
       <c r="E133" s="39"/>
@@ -4257,178 +4257,128 @@
       <c r="I133" s="39"/>
       <c r="J133" s="40"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
-      <c r="J134" s="51"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C134" s="46"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="48"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="51"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C135" s="46"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="48"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
-      <c r="J136" s="51"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C136" s="46"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="48"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="51"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C137" s="46"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="48"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="51"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C138" s="46"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="48"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="51"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C139" s="46"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
+      <c r="F139" s="47"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="48"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
-      <c r="J140" s="51"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C140" s="46"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="48"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="51"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C141" s="46"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="48"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="51"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C142" s="46"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="47"/>
+      <c r="J142" s="48"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="51"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:T5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C125:J125"/>
@@ -4445,6 +4395,56 @@
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C47:J47"/>
     <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="C140:J140"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="C139:J139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,385 +4456,399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="M1" s="64" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20001</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="M2" s="63" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="M2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C8" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>20006</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C11" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C15" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="63"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4844,20 +4858,6 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,58 +4869,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.09765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="9.09765625" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="18.09765625" customWidth="1"/>
-    <col min="17" max="17" width="13.3984375" customWidth="1"/>
+    <col min="7" max="7" width="86.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -4937,20 +4937,20 @@
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>125</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>126</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -4967,20 +4967,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -4997,20 +4997,20 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -5024,25 +5024,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -5059,18 +5059,18 @@
         <v>72</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -5084,17 +5084,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -5108,17 +5108,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -5132,19 +5132,19 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>171</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5161,13 +5161,13 @@
         <v>79</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5184,7 +5184,7 @@
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3DAC6-1E73-4670-B8CC-76A8DDE615FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5950D37-1813-43F7-AA0A-6CB95C3FB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
     <sheet name="DialogSheet" sheetId="2" r:id="rId2"/>
     <sheet name="ObjectDialogSheet" sheetId="3" r:id="rId3"/>
     <sheet name="QuestDBSheet" sheetId="4" r:id="rId4"/>
-    <sheet name="NpcDBSheet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,33 +293,6 @@
   </si>
   <si>
     <t>현재는 주민들과 방문객들의 만남의 장소로 자주 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;- 대장장이의 집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>푸른 해변      초록숲 -&gt;</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,10 +449,6 @@
   </si>
   <si>
     <t>"마녀수련여행 중…" - 마녀 -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;- 마녀의 집      햇빛마을 -&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -921,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵을 돌아다니며 민트불가사리 15마리를 채집해 마녀에게 건내자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일하는 중이네. 방해하지 마시게.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,6 +942,91 @@
   </si>
   <si>
     <t>이 절벽을 오르려면 많은 기력이 필요합니다. (최소 태양석 9개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 대장장이의 집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>푸른 해변      초록숲 →</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>← 마녀의 집      햇빛마을 →</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 돌아다니며 민트불가사리 10마리를 채집해 마녀에게 건내자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트1 수락 임시 다이얼로그 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜록콜록…. 허브가 있으면 몸이 좀 괜찮아질 것 같은데… 콜록콜록콜록….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에 살았네!! 정말 고맙구려!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고~ 힘든 부탁이지만 이번 딱 한 번만 부탁 좀 함세!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퀘스트2 완료 임시 다이얼로그 출력 [NPC ID ERROR: 퀘스트 수락, 클리어가 같습니다.] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퀘스트3 완료 임시 다이얼로그 출력 [NPC ID ERROR: 퀘스트 수락, 클리어가 같습니다.] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퀘스트6 완료 임시 다이얼로그 출력 [NPC ID ERROR: 퀘스트 수락, 클리어가 같습니다.] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퀘스트7 완료 임시 다이얼로그 출력 [NPC ID ERROR: 퀘스트 수락, 클리어가 같습니다.] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">퀘스트9 완료 임시 다이얼로그 출력 [NPC ID ERROR: 퀘스트 수락, 클리어가 같습니다.] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1056,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1274,6 +1338,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1283,35 +1401,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1319,14 +1416,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,9 +1742,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1765,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1692,7 +1786,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1713,7 +1807,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1734,7 +1828,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1755,7 +1849,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1776,7 +1870,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1806,486 +1900,494 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="M1" s="52" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="M1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="53">
         <v>11000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="M2" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>11000</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>11001</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="M3" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
+        <v>11001</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
-        <v>11090</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>11090</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>11100</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>11090</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11100</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="C12" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>11100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
         <v>11200</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="C14" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
         <v>11200</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="C15" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="43">
         <v>11300</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="C16" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="53">
         <v>11301</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="C17" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="52">
         <v>11302</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="53">
+        <v>11303</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>11304</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>11302</v>
-      </c>
-      <c r="B18" s="41" t="s">
+      <c r="C20" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>11304</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>11305</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>11303</v>
-      </c>
-      <c r="B19" s="41" t="s">
+      <c r="C22" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>11305</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>11303</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="46" t="s">
+      <c r="C23" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="18">
         <v>11390</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>11390</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>11390</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>11391</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2295,15 +2397,15 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="18">
-        <v>11391</v>
+        <v>11390</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -2313,15 +2415,15 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="18">
-        <v>11391</v>
+        <v>11390</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2331,7 +2433,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
         <v>11391</v>
       </c>
@@ -2339,7 +2441,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2349,7 +2451,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
@@ -2357,7 +2459,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -2367,7 +2469,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="18">
         <v>11391</v>
       </c>
@@ -2375,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2385,7 +2487,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
@@ -2393,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2403,7 +2505,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="18">
         <v>11391</v>
       </c>
@@ -2411,7 +2513,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2421,7 +2523,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="18">
         <v>11391</v>
       </c>
@@ -2429,7 +2531,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2439,15 +2541,15 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="18">
-        <v>11392</v>
+        <v>11391</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -2457,15 +2559,15 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="18">
-        <v>11392</v>
+        <v>11391</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2475,15 +2577,15 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="18">
-        <v>11393</v>
+        <v>11391</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2493,15 +2595,15 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
-        <v>11393</v>
+        <v>11392</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -2511,15 +2613,15 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="18">
-        <v>11393</v>
+        <v>11392</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -2529,7 +2631,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="18">
         <v>11393</v>
       </c>
@@ -2537,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2547,7 +2649,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="18">
         <v>11393</v>
       </c>
@@ -2555,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2565,7 +2667,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="18">
         <v>11393</v>
       </c>
@@ -2573,7 +2675,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="39"/>
@@ -2583,15 +2685,15 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="18">
-        <v>11394</v>
+        <v>11393</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2601,15 +2703,15 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="18">
-        <v>11394</v>
+        <v>11393</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2619,15 +2721,15 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="18">
-        <v>11394</v>
+        <v>11393</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39"/>
@@ -2637,573 +2739,573 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="18">
+        <v>11394</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
         <v>11400</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C47" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="41">
+        <v>11400</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="41">
+        <v>11500</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="62"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="41">
+        <v>11500</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="59"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="41">
+        <v>11501</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="41">
-        <v>11400</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
-        <v>11500</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="41">
-        <v>11500</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="48"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
-        <v>11501</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="48"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>11600</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="48"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="59"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>11600</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="59"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="59"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="59"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
+        <v>11600</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="48"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="41">
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="59"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="41">
         <v>11700</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B56" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="48"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="C56" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="59"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="41">
         <v>11700</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B57" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="C57" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="59"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="6">
         <v>11701</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="C58" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="59"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="18">
         <v>11790</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C59" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="18">
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="18">
         <v>11790</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C60" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="30"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="30"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="18">
         <v>11790</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="30"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="41">
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="41">
         <v>11800</v>
       </c>
-      <c r="B59" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="48"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="B62" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="59"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="41">
         <v>11800</v>
       </c>
-      <c r="B60" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="48"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="41">
+      <c r="B63" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="59"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="41">
         <v>11801</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="46" t="s">
+      <c r="B64" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="48"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="59"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="6">
         <v>11801</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="46" t="s">
+      <c r="B65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="48"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
-        <v>11890</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
-        <v>11890</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
-        <v>11890</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="59"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="30"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="18">
         <v>11890</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="30"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="18">
         <v>11890</v>
       </c>
       <c r="B68" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71" s="18">
+        <v>11890</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="30"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72" s="6">
+        <v>12000</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="59"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73" s="16">
+        <v>12000</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="59"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="16">
+        <v>12000</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="30"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
-        <v>12000</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="48"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <v>12000</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="48"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>12000</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="48"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="59"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="52">
         <v>12100</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="37"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>12101</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="51"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>72</v>
+      <c r="B75" s="52" t="s">
+        <v>70</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
@@ -3213,159 +3315,159 @@
       <c r="I75" s="50"/>
       <c r="J75" s="51"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="51"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="18">
-        <v>12190</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="51"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="41">
+        <v>12101</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="37"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="26">
+        <v>12102</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="23"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="18">
         <v>12190</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="51"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C78" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="72"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="33"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="72"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="40"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C80" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="72"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="40"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="71"/>
+      <c r="J81" s="72"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="18">
-        <v>12191</v>
+        <v>12190</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="40"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C82" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="72"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="18">
         <v>12191</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="40"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="33"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="18">
         <v>12191</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3375,15 +3477,15 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="18">
         <v>12191</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3393,15 +3495,15 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="18">
         <v>12191</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3411,15 +3513,15 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="18">
         <v>12191</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3429,267 +3531,267 @@
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="41">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" s="18">
+        <v>12191</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" s="41">
         <v>13000</v>
       </c>
-      <c r="B88" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="48"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
+      <c r="B92" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="59"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" s="16">
         <v>13000</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" s="46" t="s">
+      <c r="B93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="59"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94" s="41">
+        <v>13000</v>
+      </c>
+      <c r="B94" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="48"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="41">
-        <v>13000</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="48"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="44">
+      <c r="C94" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="59"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="44">
         <v>13100</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="46" t="s">
+      <c r="B95" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="59"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="41">
+        <v>13101</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="59"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" s="53">
+        <v>13102</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="68"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="69"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" s="41">
+        <v>13103</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="59"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" s="53">
+        <v>13104</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="69"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" s="41">
+        <v>13105</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="48"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="41">
-        <v>13101</v>
-      </c>
-      <c r="B92" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="48"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="41">
-        <v>13102</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="48"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="41">
-        <v>13103</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="48"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
-        <v>13104</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="48"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="40"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="40"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="40"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="40"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C100" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="40"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="18">
-        <v>13190</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="40"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="59"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" s="16">
+        <v>13106</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="59"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="18">
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3699,15 +3801,15 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="18">
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3717,15 +3819,15 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3735,15 +3837,15 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3753,15 +3855,15 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3771,15 +3873,15 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="18">
-        <v>13191</v>
+        <v>13190</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3789,15 +3891,15 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="18">
-        <v>13192</v>
+        <v>13190</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3807,15 +3909,15 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="18">
-        <v>13192</v>
+        <v>13190</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3825,15 +3927,15 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="18">
-        <v>13192</v>
+        <v>13191</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3843,15 +3945,15 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="18">
-        <v>13193</v>
+        <v>13191</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3861,15 +3963,15 @@
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="18">
-        <v>13193</v>
+        <v>13191</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3879,15 +3981,15 @@
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="18">
-        <v>13193</v>
+        <v>13191</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3897,15 +3999,15 @@
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="18">
-        <v>13193</v>
+        <v>13192</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -3915,15 +4017,15 @@
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="18">
-        <v>13194</v>
+        <v>13192</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -3933,15 +4035,15 @@
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="18">
-        <v>13194</v>
+        <v>13192</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -3951,15 +4053,15 @@
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -3969,15 +4071,15 @@
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -3987,15 +4089,15 @@
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4005,15 +4107,15 @@
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="18">
-        <v>13194</v>
+        <v>13193</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4023,15 +4125,15 @@
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4041,15 +4143,15 @@
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4059,15 +4161,15 @@
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4077,15 +4179,15 @@
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="18">
-        <v>13195</v>
+        <v>13194</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4095,33 +4197,33 @@
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="43">
-        <v>14000</v>
-      </c>
-      <c r="B125" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C125" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
-      <c r="I125" s="47"/>
-      <c r="J125" s="48"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="18">
+        <v>13194</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="18">
-        <v>14090</v>
+        <v>13194</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
@@ -4131,15 +4233,15 @@
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -4149,15 +4251,15 @@
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4167,15 +4269,15 @@
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -4185,15 +4287,15 @@
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="18">
-        <v>14090</v>
+        <v>13195</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -4203,248 +4305,416 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="18">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="43">
+        <v>14000</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="58"/>
+      <c r="J131" s="59"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="52">
+        <v>14001</v>
+      </c>
+      <c r="B132" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="51"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133" s="53">
+        <v>14002</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="69"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="52">
+        <v>14003</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="51"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135" s="18">
         <v>14090</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B135" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="40"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A136" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="40"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A137" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="J131" s="40"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="18">
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="40"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A138" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="40"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A139" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="40"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A140" s="18">
+        <v>14090</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="40"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A141" s="18">
         <v>14091</v>
       </c>
-      <c r="B132" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C132" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="J132" s="40"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="18">
+      <c r="B141" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="40"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A142" s="18">
         <v>14091</v>
       </c>
-      <c r="B133" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="J133" s="40"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="48"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="48"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="48"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="48"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="48"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="48"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47"/>
-      <c r="I140" s="47"/>
-      <c r="J140" s="48"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
-      <c r="I141" s="47"/>
-      <c r="J141" s="48"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="47"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
-      <c r="J142" s="48"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B142" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="40"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="47"/>
-      <c r="J143" s="48"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="59"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="59"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="58"/>
+      <c r="J145" s="59"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="58"/>
+      <c r="J146" s="59"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="58"/>
+      <c r="I147" s="58"/>
+      <c r="J147" s="59"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="59"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="58"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="58"/>
+      <c r="I149" s="58"/>
+      <c r="J149" s="59"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58"/>
+      <c r="J150" s="59"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="59"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="58"/>
+      <c r="J152" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C125:J125"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C19:J19"/>
+  <mergeCells count="72">
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C18:J18"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
     <mergeCell ref="C55:J55"/>
     <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M3:T6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C7:J7"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C4:J4"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:T5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C50:J50"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="C140:J140"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="C138:J138"/>
-    <mergeCell ref="C139:J139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,399 +4726,385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="M1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>20001</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="M2" s="64" t="s">
+      <c r="C2" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="M2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>20006</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="77"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -4858,6 +5114,20 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4867,60 +5137,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="86.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="18.09765625" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -4937,20 +5207,20 @@
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -4967,20 +5237,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -4997,20 +5267,20 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -5024,25 +5294,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -5056,21 +5326,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -5084,17 +5354,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -5108,17 +5378,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -5132,19 +5402,19 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5158,35 +5428,44 @@
         <v>2</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>192</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466ECBD9-9875-43F8-BF92-18A74A2E8544}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5950D37-1813-43F7-AA0A-6CB95C3FB627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FDBB1-3C64-4E93-BC3E-9411323E6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아픈 일이 있으시면 언제든지 들려주세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>촌장에게 들었네. 섬의 지도를 그린다지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,10 +657,6 @@
   </si>
   <si>
     <t>마음껏 구경하고 살게 있으면 사고 팔게 있으면 팔면 됩니다요~~!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어머! 처음 뵙는 모험가님 이시네요! 저는 이 마을의 하나뿐은 의원, 라벤더라고해요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1027,6 +1019,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 부족할 때는 포션을 구매해서 사용하시면 좋아요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖에서 쓰러지게 되면 다시 마을로 돌아오셔야하니까 조심해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,6 +1344,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1354,15 +1399,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1371,56 +1407,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,9 +1742,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1902,62 +1902,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="M1" s="63" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="M1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="65"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="67"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
         <v>11000</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="C2" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
       <c r="M2" s="46"/>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
@@ -1967,419 +1967,419 @@
       <c r="S2" s="47"/>
       <c r="T2" s="48"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>11001</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="M3" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C3" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="M3" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>11001</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>11090</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C5" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>11090</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>11090</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>11090</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>11090</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>11090</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C10" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>11100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C11" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11100</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C12" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11100</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C13" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11200</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C14" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>11200</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C15" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="43">
         <v>11300</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>11301</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <v>11302</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="53">
         <v>11303</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11304</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>11304</v>
       </c>
       <c r="B21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C21" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>11305</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>11305</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>11390</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>11390</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -2415,7 +2415,7 @@
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>11390</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2433,7 +2433,7 @@
       <c r="I26" s="39"/>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>11391</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2451,7 +2451,7 @@
       <c r="I27" s="39"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>11391</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="I28" s="39"/>
       <c r="J28" s="40"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>11391</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2487,7 +2487,7 @@
       <c r="I29" s="39"/>
       <c r="J29" s="40"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>11391</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="I30" s="39"/>
       <c r="J30" s="40"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>11391</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="I31" s="39"/>
       <c r="J31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>11391</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2541,7 +2541,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>11391</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -2559,7 +2559,7 @@
       <c r="I33" s="39"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>11391</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2577,7 +2577,7 @@
       <c r="I34" s="39"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>11391</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="I35" s="39"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>11392</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="I36" s="39"/>
       <c r="J36" s="40"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>11392</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -2631,7 +2631,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>11393</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2649,7 +2649,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>11393</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2667,7 +2667,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>11393</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="I40" s="39"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>11393</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2703,7 +2703,7 @@
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>11393</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2721,7 +2721,7 @@
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>11393</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="I43" s="39"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>11394</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
@@ -2757,7 +2757,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="40"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>11394</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
@@ -2775,7 +2775,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="40"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>11394</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -2793,241 +2793,241 @@
       <c r="I46" s="39"/>
       <c r="J46" s="40"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>11400</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C47" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="61"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>11400</v>
       </c>
       <c r="B48" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="59"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C48" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>11500</v>
       </c>
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="62"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C49" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="74"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>11500</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="59"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C50" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="61"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>11501</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="59"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C51" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="61"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>11600</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="59"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="61"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>11600</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="59"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>11600</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="59"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="61"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>11600</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="59"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="61"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>11700</v>
       </c>
       <c r="B56" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="59"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C56" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="61"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>11700</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="59"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C57" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="61"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>11701</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="59"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C58" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="61"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>11790</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="72"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="64"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>11790</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="I60" s="29"/>
       <c r="J60" s="30"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>11790</v>
       </c>
@@ -3063,84 +3063,84 @@
       <c r="I61" s="29"/>
       <c r="J61" s="30"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>11800</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="59"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="61"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>11800</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="59"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="61"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>11801</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="59"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="61"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>11801</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="59"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="61"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>11890</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>51</v>
@@ -3153,12 +3153,12 @@
       <c r="I66" s="39"/>
       <c r="J66" s="40"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>11890</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>52</v>
@@ -3171,12 +3171,12 @@
       <c r="I67" s="39"/>
       <c r="J67" s="40"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>11890</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>53</v>
@@ -3189,12 +3189,12 @@
       <c r="I68" s="39"/>
       <c r="J68" s="40"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>11890</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>54</v>
@@ -3207,15 +3207,15 @@
       <c r="I69" s="29"/>
       <c r="J69" s="30"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>11890</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -3225,15 +3225,15 @@
       <c r="I70" s="29"/>
       <c r="J70" s="30"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>11890</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
@@ -3243,69 +3243,69 @@
       <c r="I71" s="29"/>
       <c r="J71" s="30"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>12000</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="59"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="61"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>12000</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="59"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="61"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>12000</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="59"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="61"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="52">
         <v>12100</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
@@ -3315,15 +3315,15 @@
       <c r="I75" s="50"/>
       <c r="J75" s="51"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>12101</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
@@ -3333,15 +3333,15 @@
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="26">
         <v>12102</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
@@ -3351,105 +3351,105 @@
       <c r="I77" s="22"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>12190</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="72"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="64"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>12190</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="72"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="64"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>12190</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="72"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C80" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="64"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>12190</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="72"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C81" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="64"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>12190</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="72"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C82" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="64"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>12191</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
@@ -3459,15 +3459,15 @@
       <c r="I83" s="32"/>
       <c r="J83" s="33"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>12191</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3477,15 +3477,15 @@
       <c r="I84" s="39"/>
       <c r="J84" s="40"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>12191</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3495,15 +3495,15 @@
       <c r="I85" s="39"/>
       <c r="J85" s="40"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>12191</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3513,15 +3513,15 @@
       <c r="I86" s="39"/>
       <c r="J86" s="40"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>12191</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3531,15 +3531,15 @@
       <c r="I87" s="39"/>
       <c r="J87" s="40"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>12191</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -3549,15 +3549,15 @@
       <c r="I88" s="39"/>
       <c r="J88" s="40"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>12191</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
@@ -3567,15 +3567,15 @@
       <c r="I89" s="39"/>
       <c r="J89" s="40"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>12191</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
@@ -3585,15 +3585,15 @@
       <c r="I90" s="39"/>
       <c r="J90" s="40"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>12191</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="39"/>
       <c r="E91" s="39"/>
@@ -3603,195 +3603,195 @@
       <c r="I91" s="39"/>
       <c r="J91" s="40"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>13000</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="59"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="61"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>13000</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="59"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C93" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="61"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>13000</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="59"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="C94" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="61"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="44">
         <v>13100</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="59"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="61"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>13101</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="59"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="61"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="53">
         <v>13102</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="69"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="58"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>13103</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="59"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="61"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="53">
         <v>13104</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="69"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="58"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>13105</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="59"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="61"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>13106</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="59"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="61"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3801,15 +3801,15 @@
       <c r="I102" s="39"/>
       <c r="J102" s="40"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3819,15 +3819,15 @@
       <c r="I103" s="39"/>
       <c r="J103" s="40"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>13190</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3837,15 +3837,15 @@
       <c r="I104" s="39"/>
       <c r="J104" s="40"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>13190</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3855,15 +3855,15 @@
       <c r="I105" s="39"/>
       <c r="J105" s="40"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>13190</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3873,15 +3873,15 @@
       <c r="I106" s="39"/>
       <c r="J106" s="40"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>13190</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3891,15 +3891,15 @@
       <c r="I107" s="39"/>
       <c r="J107" s="40"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>13190</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3909,15 +3909,15 @@
       <c r="I108" s="39"/>
       <c r="J108" s="40"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>13190</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3927,15 +3927,15 @@
       <c r="I109" s="39"/>
       <c r="J109" s="40"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>13191</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3945,15 +3945,15 @@
       <c r="I110" s="39"/>
       <c r="J110" s="40"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>13191</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3963,15 +3963,15 @@
       <c r="I111" s="39"/>
       <c r="J111" s="40"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>13191</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3981,15 +3981,15 @@
       <c r="I112" s="39"/>
       <c r="J112" s="40"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>13191</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -3999,15 +3999,15 @@
       <c r="I113" s="39"/>
       <c r="J113" s="40"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>13192</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -4017,15 +4017,15 @@
       <c r="I114" s="39"/>
       <c r="J114" s="40"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>13192</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -4035,15 +4035,15 @@
       <c r="I115" s="39"/>
       <c r="J115" s="40"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>13192</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -4053,15 +4053,15 @@
       <c r="I116" s="39"/>
       <c r="J116" s="40"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>13193</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -4071,15 +4071,15 @@
       <c r="I117" s="39"/>
       <c r="J117" s="40"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>13193</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -4089,15 +4089,15 @@
       <c r="I118" s="39"/>
       <c r="J118" s="40"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>13193</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4107,15 +4107,15 @@
       <c r="I119" s="39"/>
       <c r="J119" s="40"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>13193</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4125,15 +4125,15 @@
       <c r="I120" s="39"/>
       <c r="J120" s="40"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>13194</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4143,15 +4143,15 @@
       <c r="I121" s="39"/>
       <c r="J121" s="40"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>13194</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4161,15 +4161,15 @@
       <c r="I122" s="39"/>
       <c r="J122" s="40"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>13194</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4179,15 +4179,15 @@
       <c r="I123" s="39"/>
       <c r="J123" s="40"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>13194</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4197,15 +4197,15 @@
       <c r="I124" s="39"/>
       <c r="J124" s="40"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>13194</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -4215,15 +4215,15 @@
       <c r="I125" s="39"/>
       <c r="J125" s="40"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>13194</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
@@ -4233,15 +4233,15 @@
       <c r="I126" s="39"/>
       <c r="J126" s="40"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>13195</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -4251,15 +4251,15 @@
       <c r="I127" s="39"/>
       <c r="J127" s="40"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>13195</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4269,15 +4269,15 @@
       <c r="I128" s="39"/>
       <c r="J128" s="40"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>13195</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -4287,15 +4287,15 @@
       <c r="I129" s="39"/>
       <c r="J129" s="40"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>13195</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -4305,33 +4305,33 @@
       <c r="I130" s="39"/>
       <c r="J130" s="40"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
         <v>14000</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="59"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="61"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="52">
         <v>14001</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
@@ -4341,33 +4341,33 @@
       <c r="I132" s="50"/>
       <c r="J132" s="51"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="53">
         <v>14002</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D133" s="68"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="68"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="68"/>
-      <c r="I133" s="68"/>
-      <c r="J133" s="69"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="58"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="52">
         <v>14003</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
@@ -4377,15 +4377,15 @@
       <c r="I134" s="50"/>
       <c r="J134" s="51"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>14090</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C135" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D135" s="39"/>
       <c r="E135" s="39"/>
@@ -4395,15 +4395,15 @@
       <c r="I135" s="39"/>
       <c r="J135" s="40"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>14090</v>
       </c>
       <c r="B136" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="D136" s="39"/>
       <c r="E136" s="39"/>
@@ -4413,15 +4413,15 @@
       <c r="I136" s="39"/>
       <c r="J136" s="40"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>14090</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C137" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D137" s="39"/>
       <c r="E137" s="39"/>
@@ -4431,15 +4431,15 @@
       <c r="I137" s="39"/>
       <c r="J137" s="40"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>14090</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D138" s="39"/>
       <c r="E138" s="39"/>
@@ -4449,15 +4449,15 @@
       <c r="I138" s="39"/>
       <c r="J138" s="40"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>14090</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D139" s="39"/>
       <c r="E139" s="39"/>
@@ -4467,15 +4467,15 @@
       <c r="I139" s="39"/>
       <c r="J139" s="40"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>14090</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D140" s="39"/>
       <c r="E140" s="39"/>
@@ -4485,15 +4485,15 @@
       <c r="I140" s="39"/>
       <c r="J140" s="40"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>14091</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D141" s="39"/>
       <c r="E141" s="39"/>
@@ -4503,15 +4503,15 @@
       <c r="I141" s="39"/>
       <c r="J141" s="40"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>14091</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
@@ -4521,152 +4521,160 @@
       <c r="I142" s="39"/>
       <c r="J142" s="40"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="58"/>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="59"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C143" s="59"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="61"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="58"/>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="59"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C144" s="59"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="61"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="59"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C145" s="59"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="61"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="58"/>
-      <c r="F146" s="58"/>
-      <c r="G146" s="58"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="59"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C146" s="59"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="61"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="58"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="59"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C147" s="59"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="61"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="58"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="59"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C148" s="59"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="60"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="60"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="61"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="58"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="59"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C149" s="59"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="60"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="61"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="59"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C150" s="59"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="60"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="61"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="58"/>
-      <c r="F151" s="58"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="59"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C151" s="59"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="60"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="61"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="58"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="60"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C149:J149"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M3:T6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
     <mergeCell ref="C79:J79"/>
     <mergeCell ref="C80:J80"/>
     <mergeCell ref="C81:J81"/>
@@ -4683,38 +4691,30 @@
     <mergeCell ref="C62:J62"/>
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M3:T6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C78:J78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4730,381 +4730,395 @@
       <selection activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="M1" s="75" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="M1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>20001</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="M2" s="74" t="s">
+      <c r="C2" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="M2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>20002</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>20003</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>20005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>20005</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>20006</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>20007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>20007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>20008</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>20008</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>20008</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20009</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>20010</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>20011</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="76"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -5114,20 +5128,6 @@
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5143,54 +5143,54 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.09765625" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" customWidth="1"/>
-    <col min="11" max="11" width="9.09765625" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="18.09765625" customWidth="1"/>
-    <col min="17" max="17" width="13.3984375" customWidth="1"/>
+    <col min="7" max="7" width="86.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -5207,20 +5207,20 @@
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -5237,20 +5237,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -5267,20 +5267,20 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -5294,25 +5294,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -5326,21 +5326,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -5354,17 +5354,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -5378,17 +5378,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -5402,19 +5402,19 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -5428,19 +5428,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -5453,14 +5453,14 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>234</v>
+      <c r="E11" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>232</v>
       </c>
       <c r="H11" s="52"/>
     </row>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FDBB1-3C64-4E93-BC3E-9411323E6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD844F-77AD-4714-8466-84ED4EFDA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="236">
   <si>
     <t>코하쿠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -931,10 +931,6 @@
   </si>
   <si>
     <t>폭신침낭</t>
-  </si>
-  <si>
-    <t>이 절벽을 오르려면 많은 기력이 필요합니다. (최소 태양석 9개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>← 대장장이의 집</t>
@@ -1027,6 +1023,14 @@
   </si>
   <si>
     <t>마을 밖에서 쓰러지게 되면 다시 마을로 돌아오셔야하니까 조심해주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 절벽을 오르려면 많은 기력이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추운 지역은 기력이 빨리 닳기 때문에 주의 해주세요! (최소 태양석 12개)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1350,6 +1354,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1360,13 +1385,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1377,49 +1414,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1902,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C50" sqref="C50:J50"/>
     </sheetView>
   </sheetViews>
@@ -1920,26 +1927,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="M1" s="65" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="M1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="67"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
@@ -1948,16 +1955,16 @@
       <c r="B2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
+      <c r="C2" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
       <c r="M2" s="46"/>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
@@ -1974,26 +1981,26 @@
       <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="M3" s="68" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="M3" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
@@ -2002,24 +2009,24 @@
       <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -2028,24 +2035,24 @@
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -2054,24 +2061,24 @@
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -2080,16 +2087,16 @@
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -2098,16 +2105,16 @@
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2116,16 +2123,16 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -2134,16 +2141,16 @@
       <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -2152,16 +2159,16 @@
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -2170,16 +2177,16 @@
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -2188,16 +2195,16 @@
       <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -2206,16 +2213,16 @@
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
@@ -2224,16 +2231,16 @@
       <c r="B15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="43">
@@ -2242,16 +2249,16 @@
       <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
@@ -2260,16 +2267,16 @@
       <c r="B17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
+      <c r="C17" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
@@ -2278,16 +2285,16 @@
       <c r="B18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="53">
@@ -2296,16 +2303,16 @@
       <c r="B19" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
+      <c r="C19" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -2314,16 +2321,16 @@
       <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -2332,16 +2339,16 @@
       <c r="B21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -2350,16 +2357,16 @@
       <c r="B22" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -2368,16 +2375,16 @@
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
@@ -2800,16 +2807,16 @@
       <c r="B47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="62"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
@@ -2818,16 +2825,16 @@
       <c r="B48" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="62"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
@@ -2836,16 +2843,16 @@
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="74"/>
+      <c r="C49" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
@@ -2854,16 +2861,16 @@
       <c r="B50" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="61"/>
+      <c r="C50" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="62"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
@@ -2872,16 +2879,16 @@
       <c r="B51" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -2890,16 +2897,16 @@
       <c r="B52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="62"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
@@ -2908,16 +2915,16 @@
       <c r="B53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="62"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -2926,16 +2933,16 @@
       <c r="B54" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="62"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -2944,16 +2951,16 @@
       <c r="B55" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="62"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
@@ -2962,16 +2969,16 @@
       <c r="B56" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="62"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
@@ -2980,16 +2987,16 @@
       <c r="B57" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="62"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -2998,16 +3005,16 @@
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="62"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
@@ -3016,16 +3023,16 @@
       <c r="B59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="64"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="75"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
@@ -3070,16 +3077,16 @@
       <c r="B62" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="62"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
@@ -3088,16 +3095,16 @@
       <c r="B63" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="62"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
@@ -3106,16 +3113,16 @@
       <c r="B64" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="62"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
@@ -3124,16 +3131,16 @@
       <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="62"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
@@ -3250,16 +3257,16 @@
       <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C72" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="62"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
@@ -3268,16 +3275,16 @@
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="62"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
@@ -3286,16 +3293,16 @@
       <c r="B74" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="62"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="52">
@@ -3305,7 +3312,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
@@ -3358,16 +3365,16 @@
       <c r="B78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="64"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="75"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
@@ -3376,16 +3383,16 @@
       <c r="B79" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="64"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="75"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
@@ -3394,16 +3401,16 @@
       <c r="B80" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="64"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="75"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
@@ -3412,16 +3419,16 @@
       <c r="B81" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="64"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="75"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
@@ -3430,16 +3437,16 @@
       <c r="B82" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="64"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="75"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
@@ -3610,16 +3617,16 @@
       <c r="B92" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="59" t="s">
+      <c r="C92" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="62"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
@@ -3628,16 +3635,16 @@
       <c r="B93" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="62"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
@@ -3646,16 +3653,16 @@
       <c r="B94" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="60"/>
-      <c r="J94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="62"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="44">
@@ -3664,16 +3671,16 @@
       <c r="B95" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="62"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
@@ -3682,16 +3689,16 @@
       <c r="B96" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="59" t="s">
+      <c r="C96" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="60"/>
-      <c r="J96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="62"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="53">
@@ -3700,16 +3707,16 @@
       <c r="B97" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C97" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="57"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="57"/>
-      <c r="J97" s="58"/>
+      <c r="C97" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="65"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
@@ -3718,16 +3725,16 @@
       <c r="B98" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="59" t="s">
+      <c r="C98" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="62"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="53">
@@ -3736,16 +3743,16 @@
       <c r="B99" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="57"/>
-      <c r="J99" s="58"/>
+      <c r="C99" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="65"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
@@ -3754,16 +3761,16 @@
       <c r="B100" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="59" t="s">
+      <c r="C100" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="60"/>
-      <c r="J100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="62"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
@@ -3772,16 +3779,16 @@
       <c r="B101" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="62"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
@@ -4312,16 +4319,16 @@
       <c r="B131" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="59" t="s">
+      <c r="C131" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="60"/>
-      <c r="J131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="62"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="52">
@@ -4331,7 +4338,7 @@
         <v>76</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
@@ -4348,16 +4355,16 @@
       <c r="B133" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="D133" s="57"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="57"/>
-      <c r="I133" s="57"/>
-      <c r="J133" s="58"/>
+      <c r="C133" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="D133" s="64"/>
+      <c r="E133" s="64"/>
+      <c r="F133" s="64"/>
+      <c r="G133" s="64"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="64"/>
+      <c r="J133" s="65"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="52">
@@ -4367,7 +4374,7 @@
         <v>76</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
@@ -4524,125 +4531,181 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="61"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="62"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="61"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="62"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="61"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="61"/>
+      <c r="J145" s="62"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="61"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="62"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="60"/>
-      <c r="I147" s="60"/>
-      <c r="J147" s="61"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="62"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="61"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="61"/>
+      <c r="I148" s="61"/>
+      <c r="J148" s="62"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="61"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="61"/>
+      <c r="F149" s="61"/>
+      <c r="G149" s="61"/>
+      <c r="H149" s="61"/>
+      <c r="I149" s="61"/>
+      <c r="J149" s="62"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="60"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="61"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="61"/>
+      <c r="J150" s="62"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="61"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="62"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="60"/>
-      <c r="J152" s="61"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="61"/>
+      <c r="G152" s="61"/>
+      <c r="H152" s="61"/>
+      <c r="I152" s="61"/>
+      <c r="J152" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M3:T6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C131:J131"/>
@@ -4659,62 +4722,6 @@
     <mergeCell ref="C58:J58"/>
     <mergeCell ref="C50:J50"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M3:T6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C149:J149"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C78:J78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4724,10 +4731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4767,16 +4774,16 @@
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="C2" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="M2" s="77" t="s">
         <v>16</v>
       </c>
@@ -4792,16 +4799,16 @@
       <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -4810,16 +4817,16 @@
       <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -4828,16 +4835,16 @@
       <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -4846,16 +4853,16 @@
       <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="C6" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -4864,16 +4871,16 @@
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -4882,16 +4889,16 @@
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -4900,16 +4907,16 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
+      <c r="C9" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -4918,16 +4925,16 @@
       <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -4936,16 +4943,16 @@
       <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -4954,16 +4961,16 @@
       <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -4972,16 +4979,16 @@
       <c r="B13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -4990,16 +4997,16 @@
       <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -5008,109 +5015,131 @@
       <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>20010</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="5">
+        <v>20009</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="C16" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>20011</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+  <mergeCells count="24">
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -5119,15 +5148,12 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5384,7 +5410,7 @@
         <v>204</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5454,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H11" s="52"/>
     </row>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FD844F-77AD-4714-8466-84ED4EFDA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEF26E-EBE8-41CE-8491-8580E1C5E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>썬샤인 아일랜드의 정상. (해발 112m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 그리기는 잘 하고 있는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1031,6 +1027,10 @@
   </si>
   <si>
     <t>추운 지역은 기력이 빨리 닳기 때문에 주의 해주세요! (최소 태양석 12개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬샤인 아일랜드의 정상.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,6 +1357,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1367,24 +1406,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1393,28 +1414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1423,10 +1426,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1927,26 +1927,26 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="M1" s="69" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="M1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="71"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="68"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="53">
@@ -1955,16 +1955,16 @@
       <c r="B2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
+      <c r="C2" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
       <c r="M2" s="46"/>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
@@ -1982,7 +1982,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
@@ -1991,16 +1991,16 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62"/>
-      <c r="M3" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
+      <c r="M3" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
@@ -2019,14 +2019,14 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
@@ -2035,24 +2035,24 @@
       <c r="B5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
+      <c r="C5" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
@@ -2061,24 +2061,24 @@
       <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -2087,16 +2087,16 @@
       <c r="B7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -2105,16 +2105,16 @@
       <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="C8" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2123,16 +2123,16 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="C9" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -2141,16 +2141,16 @@
       <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="C10" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -2160,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -2178,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -2196,7 +2196,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
@@ -2214,7 +2214,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
@@ -2232,7 +2232,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
@@ -2250,7 +2250,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -2267,16 +2267,16 @@
       <c r="B17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="C17" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
@@ -2286,7 +2286,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -2303,16 +2303,16 @@
       <c r="B19" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="C19" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -2322,7 +2322,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
@@ -2340,7 +2340,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
@@ -2412,7 +2412,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -2430,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2484,7 +2484,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2538,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2556,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
@@ -2574,7 +2574,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2628,7 +2628,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
@@ -2646,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
@@ -2664,7 +2664,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="39"/>
@@ -2700,7 +2700,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="39"/>
@@ -2718,7 +2718,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
@@ -2754,7 +2754,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39"/>
@@ -2772,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39"/>
@@ -2790,7 +2790,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -2808,7 +2808,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
@@ -2826,7 +2826,7 @@
         <v>33</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
@@ -2843,16 +2843,16 @@
       <c r="B49" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
+      <c r="C49" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="75"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
@@ -2862,7 +2862,7 @@
         <v>35</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -2880,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>
@@ -2970,7 +2970,7 @@
         <v>47</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D56" s="61"/>
       <c r="E56" s="61"/>
@@ -2988,7 +2988,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="61"/>
       <c r="E57" s="61"/>
@@ -3006,7 +3006,7 @@
         <v>47</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="61"/>
       <c r="E58" s="61"/>
@@ -3023,16 +3023,16 @@
       <c r="B59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="75"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="65"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
@@ -3078,7 +3078,7 @@
         <v>67</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="61"/>
       <c r="E62" s="61"/>
@@ -3096,7 +3096,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="61"/>
       <c r="E63" s="61"/>
@@ -3258,7 +3258,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="61"/>
       <c r="E72" s="61"/>
@@ -3312,7 +3312,7 @@
         <v>69</v>
       </c>
       <c r="C75" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="50"/>
@@ -3330,7 +3330,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
@@ -3348,7 +3348,7 @@
         <v>69</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
@@ -3365,16 +3365,16 @@
       <c r="B78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="75"/>
+      <c r="C78" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="65"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
@@ -3383,16 +3383,16 @@
       <c r="B79" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="75"/>
+      <c r="C79" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="65"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
@@ -3401,16 +3401,16 @@
       <c r="B80" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="75"/>
+      <c r="C80" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="65"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
@@ -3419,16 +3419,16 @@
       <c r="B81" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="73" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="75"/>
+      <c r="C81" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="65"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
@@ -3437,16 +3437,16 @@
       <c r="B82" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="75"/>
+      <c r="C82" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="65"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
@@ -3456,7 +3456,7 @@
         <v>69</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
@@ -3474,7 +3474,7 @@
         <v>69</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
@@ -3492,7 +3492,7 @@
         <v>69</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -3510,7 +3510,7 @@
         <v>69</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -3528,7 +3528,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
@@ -3546,7 +3546,7 @@
         <v>69</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
@@ -3564,7 +3564,7 @@
         <v>69</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
@@ -3582,7 +3582,7 @@
         <v>69</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
@@ -3600,7 +3600,7 @@
         <v>69</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" s="39"/>
       <c r="E91" s="39"/>
@@ -3669,10 +3669,10 @@
         <v>13100</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D95" s="61"/>
       <c r="E95" s="61"/>
@@ -3687,10 +3687,10 @@
         <v>13101</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D96" s="61"/>
       <c r="E96" s="61"/>
@@ -3705,28 +3705,28 @@
         <v>13102</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="65"/>
+        <v>124</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+      <c r="J97" s="59"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>13103</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C98" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D98" s="61"/>
       <c r="E98" s="61"/>
@@ -3741,28 +3741,28 @@
         <v>13104</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" s="63" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="65"/>
+        <v>124</v>
+      </c>
+      <c r="C99" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="59"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>13105</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D100" s="61"/>
       <c r="E100" s="61"/>
@@ -3777,10 +3777,10 @@
         <v>13106</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D101" s="61"/>
       <c r="E101" s="61"/>
@@ -3795,10 +3795,10 @@
         <v>13190</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="39"/>
       <c r="E102" s="39"/>
@@ -3813,10 +3813,10 @@
         <v>13190</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="39"/>
       <c r="E103" s="39"/>
@@ -3831,10 +3831,10 @@
         <v>13190</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="39"/>
@@ -3849,10 +3849,10 @@
         <v>13190</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="39"/>
@@ -3867,10 +3867,10 @@
         <v>13190</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
@@ -3885,10 +3885,10 @@
         <v>13190</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
@@ -3903,10 +3903,10 @@
         <v>13190</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
@@ -3921,10 +3921,10 @@
         <v>13190</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
@@ -3939,10 +3939,10 @@
         <v>13191</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
@@ -3957,10 +3957,10 @@
         <v>13191</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
@@ -3975,10 +3975,10 @@
         <v>13191</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" s="39"/>
       <c r="E112" s="39"/>
@@ -3993,10 +3993,10 @@
         <v>13191</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
@@ -4011,10 +4011,10 @@
         <v>13192</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="39"/>
       <c r="E114" s="39"/>
@@ -4029,10 +4029,10 @@
         <v>13192</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -4047,10 +4047,10 @@
         <v>13192</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D116" s="39"/>
       <c r="E116" s="39"/>
@@ -4065,10 +4065,10 @@
         <v>13193</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D117" s="39"/>
       <c r="E117" s="39"/>
@@ -4083,10 +4083,10 @@
         <v>13193</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D118" s="39"/>
       <c r="E118" s="39"/>
@@ -4101,10 +4101,10 @@
         <v>13193</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D119" s="39"/>
       <c r="E119" s="39"/>
@@ -4119,10 +4119,10 @@
         <v>13193</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D120" s="39"/>
       <c r="E120" s="39"/>
@@ -4137,10 +4137,10 @@
         <v>13194</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D121" s="39"/>
       <c r="E121" s="39"/>
@@ -4155,10 +4155,10 @@
         <v>13194</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D122" s="39"/>
       <c r="E122" s="39"/>
@@ -4173,10 +4173,10 @@
         <v>13194</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
@@ -4191,10 +4191,10 @@
         <v>13194</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
@@ -4209,10 +4209,10 @@
         <v>13194</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D125" s="39"/>
       <c r="E125" s="39"/>
@@ -4227,10 +4227,10 @@
         <v>13194</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
@@ -4245,10 +4245,10 @@
         <v>13195</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D127" s="39"/>
       <c r="E127" s="39"/>
@@ -4263,10 +4263,10 @@
         <v>13195</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D128" s="39"/>
       <c r="E128" s="39"/>
@@ -4281,10 +4281,10 @@
         <v>13195</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="39"/>
@@ -4299,10 +4299,10 @@
         <v>13195</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="39"/>
@@ -4338,7 +4338,7 @@
         <v>76</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
@@ -4355,16 +4355,16 @@
       <c r="B133" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="64"/>
-      <c r="J133" s="65"/>
+      <c r="C133" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="58"/>
+      <c r="J133" s="59"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="52">
@@ -4374,7 +4374,7 @@
         <v>76</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
@@ -4482,7 +4482,7 @@
         <v>76</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D140" s="39"/>
       <c r="E140" s="39"/>
@@ -4500,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D141" s="39"/>
       <c r="E141" s="39"/>
@@ -4518,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D142" s="39"/>
       <c r="E142" s="39"/>
@@ -4650,6 +4650,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M3:T6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
     <mergeCell ref="C133:J133"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C17:J17"/>
@@ -4666,62 +4722,6 @@
     <mergeCell ref="C97:J97"/>
     <mergeCell ref="C99:J99"/>
     <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M3:T6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C49:J49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4734,7 +4734,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J16"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4749,23 +4749,23 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="M1" s="78" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="M1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -4775,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
@@ -4784,13 +4784,13 @@
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -4854,7 +4854,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -4872,7 +4872,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
@@ -4889,8 +4889,8 @@
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>216</v>
+      <c r="C8" s="73" t="s">
+        <v>215</v>
       </c>
       <c r="D8" s="61"/>
       <c r="E8" s="61"/>
@@ -4907,8 +4907,8 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>220</v>
+      <c r="C9" s="80" t="s">
+        <v>219</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="61"/>
@@ -4926,7 +4926,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="61"/>
@@ -4944,7 +4944,7 @@
         <v>63</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -5016,7 +5016,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61"/>
@@ -5034,7 +5034,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="61"/>
@@ -5052,7 +5052,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
@@ -5070,7 +5070,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
@@ -5083,53 +5083,67 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
@@ -5140,20 +5154,6 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5186,34 +5186,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="D1" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5233,17 +5233,17 @@
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="H2" s="26"/>
       <c r="M2" s="12">
         <v>0</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5263,17 +5263,17 @@
         <v>38</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="26"/>
       <c r="M3" s="12">
         <v>1</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5293,17 +5293,17 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="26"/>
       <c r="M4" s="12">
         <v>2</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5320,22 +5320,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>186</v>
       </c>
       <c r="M5" s="12">
         <v>3</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5355,13 +5355,13 @@
         <v>69</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -5380,13 +5380,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="26"/>
     </row>
@@ -5404,13 +5404,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H8" s="26"/>
     </row>
@@ -5428,16 +5428,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="H9" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5457,13 +5457,13 @@
         <v>76</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5480,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H11" s="52"/>
     </row>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.Summer_Break\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Game_Project\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEF26E-EBE8-41CE-8491-8580E1C5E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7360C7B7-AE22-4C15-B88D-D0F31897D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="1752" yWindow="3072" windowWidth="23040" windowHeight="12216" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,58 +1195,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1262,118 +1217,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1393,8 +1237,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1406,6 +1250,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1414,10 +1276,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,8 +1306,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,160 +1629,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DA4706-D5FA-4406-884C-A48DC95FE198}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1909,2747 +1752,2803 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C50:J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
-      <c r="M1" s="66" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="M1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="68"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="53">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
         <v>11000</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-    </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>11001</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="M3" s="69" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="M3" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>11001</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
         <v>11090</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
         <v>11090</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>11090</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
         <v>11090</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
         <v>11090</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
         <v>11090</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>11100</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>11100</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>11100</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>11200</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>11200</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>11300</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="17">
         <v>11301</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>11302</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="53">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="17">
         <v>11303</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>11304</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>11304</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>11305</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>11305</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="62"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
         <v>11390</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
         <v>11390</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
         <v>11390</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
         <v>11391</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
         <v>11391</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
         <v>11391</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
         <v>11391</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
         <v>11391</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
         <v>11391</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
         <v>11391</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
         <v>11391</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
         <v>11391</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
         <v>11392</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
         <v>11392</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
         <v>11393</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
         <v>11393</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
         <v>11393</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
         <v>11393</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
         <v>11393</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
         <v>11393</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
         <v>11394</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
         <v>11394</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
         <v>11394</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="41">
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>11400</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="62"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>11400</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="62"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="41">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>11500</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="75"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>11500</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="62"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="41">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>11501</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="62"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>11600</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="62"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>11600</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="62"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>11600</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="62"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>11600</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="62"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="23"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>11700</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="62"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="41">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>11700</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="61"/>
-      <c r="J57" s="62"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="23"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>11701</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="62"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="18">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="23"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
         <v>11790</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="65"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
         <v>11790</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="30"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
         <v>11790</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="30"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>11800</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="41">
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="23"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>11800</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="62"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="23"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>11801</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="62"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="23"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>11801</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
         <v>11890</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="18">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
         <v>11890</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="18">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
         <v>11890</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="18">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
         <v>11890</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="30"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
         <v>11890</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="18">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
         <v>11890</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="30"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
         <v>12000</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="23"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>12000</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="23"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
         <v>12000</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="52">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>12100</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="51"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="41">
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
         <v>12101</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="37"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
         <v>12102</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="23"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
         <v>12190</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="65"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="18">
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
         <v>12190</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="65"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="36"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
         <v>12190</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="63" t="s">
+      <c r="C80" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
-      <c r="I80" s="64"/>
-      <c r="J80" s="65"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="18">
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="36"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
         <v>12190</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="65"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="18">
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
         <v>12190</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C82" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="65"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="18">
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="36"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="5">
         <v>12191</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="33"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="13"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="5">
         <v>12191</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="40"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="18">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="13"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="5">
         <v>12191</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="40"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="18">
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="13"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="5">
         <v>12191</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="40"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="18">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="13"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="5">
         <v>12191</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="40"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="5">
         <v>12191</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="40"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="18">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="5">
         <v>12191</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="40"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="18">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="13"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" s="5">
         <v>12191</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="40"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="18">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="13"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" s="5">
         <v>12191</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="40"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="41">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
         <v>13000</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="61"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="23"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
         <v>13000</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="41">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="23"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
         <v>13000</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="62"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="44">
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="23"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
         <v>13100</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="62"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="41">
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="23"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
         <v>13101</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="62"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="53">
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="23"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" s="17">
         <v>13102</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="59"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="41">
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <v>13103</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="62"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="53">
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="23"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" s="17">
         <v>13104</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C99" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="59"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="41">
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
         <v>13105</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="62"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="23"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
         <v>13106</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="61"/>
-      <c r="J101" s="62"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102" s="5">
         <v>13190</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="40"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="18">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103" s="5">
         <v>13190</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="40"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="18">
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104" s="5">
         <v>13190</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="40"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="18">
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105" s="5">
         <v>13190</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="40"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="18">
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106" s="5">
         <v>13190</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="40"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="18">
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A107" s="5">
         <v>13190</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="40"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="18">
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A108" s="5">
         <v>13190</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="40"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="18">
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109" s="5">
         <v>13190</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="40"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="18">
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A110" s="5">
         <v>13191</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="40"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="18">
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111" s="5">
         <v>13191</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="40"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="18">
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112" s="5">
         <v>13191</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="40"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="18">
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" s="5">
         <v>13191</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="40"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="18">
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" s="5">
         <v>13192</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="J114" s="40"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="18">
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" s="5">
         <v>13192</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="40"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="18">
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" s="5">
         <v>13192</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="40"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="18">
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" s="5">
         <v>13193</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="40"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="18">
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="5">
         <v>13193</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="40"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="18">
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="5">
         <v>13193</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="40"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="18">
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="5">
         <v>13193</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="40"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="18">
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="5">
         <v>13194</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="40"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="18">
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="13"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="5">
         <v>13194</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="40"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="18">
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="13"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="5">
         <v>13194</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="40"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="18">
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="5">
         <v>13194</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="40"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="18">
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="5">
         <v>13194</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="40"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="5">
         <v>13194</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="40"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="18">
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="5">
         <v>13195</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="40"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="18">
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128" s="5">
         <v>13195</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="40"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="18">
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="13"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129" s="5">
         <v>13195</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="40"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="18">
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="13"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="5">
         <v>13195</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="40"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="43">
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
         <v>14000</v>
       </c>
-      <c r="B131" s="43" t="s">
+      <c r="B131" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="60" t="s">
+      <c r="C131" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="62"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="52">
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="23"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
         <v>14001</v>
       </c>
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="51"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="53">
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A133" s="17">
         <v>14002</v>
       </c>
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="57" t="s">
+      <c r="C133" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="58"/>
-      <c r="H133" s="58"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="59"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="52">
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="26"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
         <v>14003</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="49" t="s">
+      <c r="C134" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
-      <c r="J134" s="51"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="18">
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A135" s="5">
         <v>14090</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="39"/>
-      <c r="J135" s="40"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="18">
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A136" s="5">
         <v>14090</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-      <c r="J136" s="40"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="18">
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A137" s="5">
         <v>14090</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
-      <c r="J137" s="40"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="18">
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A138" s="5">
         <v>14090</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
-      <c r="J138" s="40"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="18">
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A139" s="5">
         <v>14090</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C139" s="38" t="s">
+      <c r="C139" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
-      <c r="J139" s="40"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="18">
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A140" s="5">
         <v>14090</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-      <c r="J140" s="40"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="18">
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A141" s="5">
         <v>14091</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
-      <c r="J141" s="40"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="18">
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A142" s="5">
         <v>14091</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="J142" s="40"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="62"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="62"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="61"/>
-      <c r="E145" s="61"/>
-      <c r="F145" s="61"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="61"/>
-      <c r="I145" s="61"/>
-      <c r="J145" s="62"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="61"/>
-      <c r="E146" s="61"/>
-      <c r="F146" s="61"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="61"/>
-      <c r="I146" s="61"/>
-      <c r="J146" s="62"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="62"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="61"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="61"/>
-      <c r="J148" s="62"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="61"/>
-      <c r="J149" s="62"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="62"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="62"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="61"/>
-      <c r="F152" s="61"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="61"/>
-      <c r="I152" s="61"/>
-      <c r="J152" s="62"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="23"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="22"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="22"/>
+      <c r="J144" s="23"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="22"/>
+      <c r="J145" s="23"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="23"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="23"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+      <c r="J148" s="23"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="23"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="22"/>
+      <c r="J150" s="23"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="23"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C133:J133"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M3:T6"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C131:J131"/>
@@ -4666,62 +4565,6 @@
     <mergeCell ref="C58:J58"/>
     <mergeCell ref="C50:J50"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M3:T6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="C133:J133"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C149:J149"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C78:J78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4733,417 +4576,403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="M1" s="79" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>20001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="M2" s="78" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="M2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>20002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>20003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>20003</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>20004</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>20005</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>20005</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>20006</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>20007</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>20007</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>20008</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>20008</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>20008</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>20009</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>20009</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>20010</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>20011</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C21:J21"/>
@@ -5154,6 +4983,20 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,330 +5008,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="86.125" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="86.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="18.09765625" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+    <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="1">
         <v>11090</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="1">
         <v>11390</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="M2" s="12">
+      <c r="H2" s="1"/>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+    <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="1">
         <v>11391</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="1">
         <v>11392</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="M3" s="12">
+      <c r="H3" s="1"/>
+      <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="1">
         <v>11393</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="1">
         <v>11394</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="M4" s="12">
+      <c r="H4" s="1"/>
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="1">
         <v>11790</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="1">
         <v>11890</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="1">
         <v>12190</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="1">
         <v>12191</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="1">
         <v>13190</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="1">
         <v>13191</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="1">
         <v>13192</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="1">
         <v>13193</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="1">
         <v>13194</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="1">
         <v>13195</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="1">
         <v>14090</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="1">
         <v>14091</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
+++ b/Assets/Resources/DB/ExcelDB/ExcelDB.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Game_Project\Project_SummerBreak\Assets\Resources\DB\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7360C7B7-AE22-4C15-B88D-D0F31897D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7F0E1-CA42-4319-B5B5-101F177C23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="3072" windowWidth="23040" windowHeight="12216" activeTab="3" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
+    <workbookView xWindow="38280" yWindow="1440" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7A28A895-B540-4F87-B6B7-1D21526F69DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="TutorialSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="DialogSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="ObjectDialogSheet" sheetId="3" r:id="rId3"/>
-    <sheet name="QuestDBSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="DialogSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="ObjectDialogSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="QuestDBSheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,49 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="236">
-  <si>
-    <t>코하쿠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미사키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요. 코하쿠입니다.</t>
-  </si>
-  <si>
-    <t>오늘은 대화 시스템 제작에 대해 배워보도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>대사를 Dialogs에 입력해두면 순차적으로 재생하게 됩니다.</t>
-  </si>
-  <si>
-    <t>이렇게 DialogSystem을 여러 개 만들어서 분기를 구분할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>대사로 이루어진 분기 사이에 캐릭터를 움직이거나 오브젝트를 생성하는 것과 같이</t>
-  </si>
-  <si>
-    <t>게임 진행에 필요한 여러 행동을 하고, 필요할 때 또 대사를 출력하도록 합니다.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="224">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,35 +1185,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1268,13 +1201,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,16 +1231,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,14 +1254,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,132 +1570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DA4706-D5FA-4406-884C-A48DC95FE198}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EA59B-82FD-4BC5-BEB7-52068324F525}">
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:J50"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1765,479 +1586,471 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="M1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="M1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="A2" s="14">
         <v>11000</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="M2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>11001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="M3" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>11001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>11090</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>11090</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>11090</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>11090</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>11090</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>11090</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>11100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>11200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>11300</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>11301</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>11302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="17">
+      <c r="A19" s="14">
         <v>11303</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>11304</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>11304</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>11305</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>11305</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>11390</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -2252,10 +2065,10 @@
         <v>11390</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2270,10 +2083,10 @@
         <v>11390</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2288,10 +2101,10 @@
         <v>11391</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -2306,10 +2119,10 @@
         <v>11391</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2324,10 +2137,10 @@
         <v>11391</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -2342,10 +2155,10 @@
         <v>11391</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2360,10 +2173,10 @@
         <v>11391</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2378,10 +2191,10 @@
         <v>11391</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2396,10 +2209,10 @@
         <v>11391</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2414,10 +2227,10 @@
         <v>11391</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2432,10 +2245,10 @@
         <v>11391</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2450,10 +2263,10 @@
         <v>11392</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2468,10 +2281,10 @@
         <v>11392</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2486,10 +2299,10 @@
         <v>11393</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2504,10 +2317,10 @@
         <v>11393</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2522,10 +2335,10 @@
         <v>11393</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2540,10 +2353,10 @@
         <v>11393</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -2558,10 +2371,10 @@
         <v>11393</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -2576,10 +2389,10 @@
         <v>11393</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -2594,10 +2407,10 @@
         <v>11394</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -2612,10 +2425,10 @@
         <v>11394</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2630,10 +2443,10 @@
         <v>11394</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -2648,244 +2461,244 @@
         <v>11400</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>11400</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>11500</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>11500</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>11501</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>11600</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>11600</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>11600</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>11600</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>11700</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>11700</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>11701</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>11790</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="36"/>
+        <v>35</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>11790</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -2900,10 +2713,10 @@
         <v>11790</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -2918,82 +2731,82 @@
         <v>11800</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>11800</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>11801</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>11801</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>11890</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -3008,10 +2821,10 @@
         <v>11890</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -3026,10 +2839,10 @@
         <v>11890</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -3044,10 +2857,10 @@
         <v>11890</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -3062,10 +2875,10 @@
         <v>11890</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -3080,10 +2893,10 @@
         <v>11890</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -3098,64 +2911,64 @@
         <v>12000</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>12000</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>12000</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>12100</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3170,10 +2983,10 @@
         <v>12101</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -3188,10 +3001,10 @@
         <v>12102</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -3206,100 +3019,100 @@
         <v>12190</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="24"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>12190</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>12190</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>12190</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="24"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>12190</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="36"/>
+        <v>57</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="24"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>12191</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -3314,10 +3127,10 @@
         <v>12191</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -3332,10 +3145,10 @@
         <v>12191</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -3350,10 +3163,10 @@
         <v>12191</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -3368,10 +3181,10 @@
         <v>12191</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -3386,10 +3199,10 @@
         <v>12191</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -3404,10 +3217,10 @@
         <v>12191</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -3422,10 +3235,10 @@
         <v>12191</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -3440,10 +3253,10 @@
         <v>12191</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -3458,190 +3271,190 @@
         <v>13000</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>13000</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>13000</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>13100</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>13101</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="17">
+      <c r="A97" s="14">
         <v>13102</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="B97" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>13103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A99" s="17">
+      <c r="A99" s="14">
         <v>13104</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
+      <c r="B99" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>13105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>13106</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>13190</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
@@ -3656,10 +3469,10 @@
         <v>13190</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -3674,10 +3487,10 @@
         <v>13190</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -3692,10 +3505,10 @@
         <v>13190</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -3710,10 +3523,10 @@
         <v>13190</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -3728,10 +3541,10 @@
         <v>13190</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -3746,10 +3559,10 @@
         <v>13190</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -3764,10 +3577,10 @@
         <v>13190</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -3782,10 +3595,10 @@
         <v>13191</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3800,10 +3613,10 @@
         <v>13191</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -3818,10 +3631,10 @@
         <v>13191</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -3836,10 +3649,10 @@
         <v>13191</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
@@ -3854,10 +3667,10 @@
         <v>13192</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
@@ -3872,10 +3685,10 @@
         <v>13192</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -3890,10 +3703,10 @@
         <v>13192</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -3908,10 +3721,10 @@
         <v>13193</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
@@ -3926,10 +3739,10 @@
         <v>13193</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -3944,10 +3757,10 @@
         <v>13193</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -3962,10 +3775,10 @@
         <v>13193</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -3980,10 +3793,10 @@
         <v>13194</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -3998,10 +3811,10 @@
         <v>13194</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4016,10 +3829,10 @@
         <v>13194</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -4034,10 +3847,10 @@
         <v>13194</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -4052,10 +3865,10 @@
         <v>13194</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -4070,10 +3883,10 @@
         <v>13194</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -4088,10 +3901,10 @@
         <v>13195</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -4106,10 +3919,10 @@
         <v>13195</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -4124,10 +3937,10 @@
         <v>13195</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -4142,10 +3955,10 @@
         <v>13195</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -4160,28 +3973,28 @@
         <v>14000</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>14001</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -4192,32 +4005,32 @@
       <c r="J132" s="8"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A133" s="17">
+      <c r="A133" s="14">
         <v>14002</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="26"/>
+      <c r="B133" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>14003</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -4232,10 +4045,10 @@
         <v>14090</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -4250,10 +4063,10 @@
         <v>14090</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
@@ -4268,10 +4081,10 @@
         <v>14090</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -4286,10 +4099,10 @@
         <v>14090</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -4304,10 +4117,10 @@
         <v>14090</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -4322,10 +4135,10 @@
         <v>14090</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -4340,10 +4153,10 @@
         <v>14091</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -4358,10 +4171,10 @@
         <v>14091</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -4374,125 +4187,181 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="23"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="I144" s="22"/>
-      <c r="J144" s="23"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="I145" s="22"/>
-      <c r="J145" s="23"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="23"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="23"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="23"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="23"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="23"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="23"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="23"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C131:J131"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="C151:J151"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="C145:J145"/>
+    <mergeCell ref="C146:J146"/>
+    <mergeCell ref="C147:J147"/>
+    <mergeCell ref="C148:J148"/>
     <mergeCell ref="C133:J133"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C17:J17"/>
@@ -4509,62 +4378,6 @@
     <mergeCell ref="C97:J97"/>
     <mergeCell ref="C99:J99"/>
     <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="C151:J151"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="C145:J145"/>
-    <mergeCell ref="C146:J146"/>
-    <mergeCell ref="C147:J147"/>
-    <mergeCell ref="C148:J148"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M3:T6"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C131:J131"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C49:J49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4572,12 +4385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4FE091-C91E-4704-8ABA-063015AC8278}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4587,402 +4400,350 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="M1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="M1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>20001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="M2" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="M2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>20002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>20003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>20005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>20006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+        <v>207</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>20007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>20007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>20008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>20008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>20008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>20009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>20009</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>20010</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>20011</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
+  <mergeCells count="20">
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
@@ -4991,12 +4752,12 @@
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5004,11 +4765,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9E069E-A6EA-4258-899E-AF7D76EEB425}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5029,34 +4790,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5073,20 +4834,20 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1"/>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5103,20 +4864,20 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1"/>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5133,20 +4894,20 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1"/>
       <c r="M4" s="1">
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5163,22 +4924,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M5" s="1">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5195,16 +4956,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -5223,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -5247,13 +5008,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -5271,16 +5032,16 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -5297,16 +5058,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -5323,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>230</v>
+        <v>218</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="H11" s="1"/>
     </row>
